--- a/Git桌面-不放大文件/汇报/第十七次汇报/实验结果.xlsx
+++ b/Git桌面-不放大文件/汇报/第十七次汇报/实验结果.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Idea Projects\Git桌面-不放大文件\汇报\第十七次汇报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFBA468-AAE1-4D36-8646-3BDCCC9947F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6127EA49-6767-4911-9FAD-10A908C58B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="1" r:id="rId1"/>
     <sheet name="行缺失率=0.1" sheetId="7" r:id="rId2"/>
-    <sheet name="行缺失率=0.2" sheetId="2" r:id="rId3"/>
-    <sheet name="行缺失率=0.3" sheetId="8" r:id="rId4"/>
-    <sheet name="基线对比实验" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId3"/>
+    <sheet name="行缺失率=0.2" sheetId="2" r:id="rId4"/>
+    <sheet name="行缺失率=0.3" sheetId="8" r:id="rId5"/>
+    <sheet name="基线对比实验" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1742,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0DF881-DEE8-4602-99E1-1731D349B269}">
   <dimension ref="A1:U119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4517,6 +4518,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525C8187-0CB5-41B0-BE19-A1F8277698D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F50565-5CEA-48CC-87AE-5F0AC68C6113}">
   <dimension ref="A1:U119"/>
   <sheetViews>
@@ -7294,7 +7311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF288AD-91D2-4814-87CF-38D178171A0F}">
   <dimension ref="A1:U119"/>
   <sheetViews>
@@ -10096,7 +10113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7B7AE7-DC14-4FA4-9486-A930955449FE}">
   <dimension ref="A1:I53"/>
   <sheetViews>

--- a/Git桌面-不放大文件/汇报/第十七次汇报/实验结果.xlsx
+++ b/Git桌面-不放大文件/汇报/第十七次汇报/实验结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA Projects\Git桌面-不放大文件\汇报\第十七次汇报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2435A6A7-58B8-44D9-95B3-0579BE3713DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28BF032-FA64-4144-8BFA-326D8C627760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="1" r:id="rId1"/>
@@ -913,22 +913,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Scenario-1: Party A with geospatial  characteristics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scenario-2: Party A with terrain  characteristics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scenario-1: Party A with connection  characteristics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scenario-2: Party A with traffic  characteristics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B方总列数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1180,12 +1164,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Scenario-1: Party A with applicant  characteristics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Scenario-1: Party B with geospatial  characteristics</t>
   </si>
   <si>
-    <t>Scenario-2: Party A with financial  characteristics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Scenario-2: Party B with terrain  characteristics</t>
+  </si>
+  <si>
+    <t>Scenario-1: Party B with connection  characteristics</t>
+  </si>
+  <si>
+    <t>Scenario-2: Party B with traffic  characteristics</t>
+  </si>
+  <si>
+    <t>Scenario-1: Party B with applicant  characteristics</t>
+  </si>
+  <si>
+    <t>Scenario-2: Party B with financial  characteristics</t>
   </si>
 </sst>
 </file>
@@ -1573,18 +1567,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1593,6 +1575,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1606,6 +1591,15 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1618,13 +1612,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2177,7 +2171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0DF881-DEE8-4602-99E1-1731D349B269}">
   <dimension ref="A1:X139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2197,21 +2191,21 @@
       <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="65" t="s">
+      <c r="B1" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -2222,27 +2216,27 @@
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64" t="s">
-        <v>260</v>
-      </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64" t="s">
-        <v>261</v>
-      </c>
-      <c r="L2" s="64"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="L2" s="67"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
@@ -2250,7 +2244,7 @@
       <c r="R2"/>
     </row>
     <row r="3" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="67" t="s">
         <v>203</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2260,7 +2254,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>28</v>
@@ -2297,11 +2291,11 @@
       <c r="U3"/>
     </row>
     <row r="4" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="24">
@@ -2342,9 +2336,9 @@
       <c r="U4"/>
     </row>
     <row r="5" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="24">
         <v>10</v>
       </c>
@@ -2383,9 +2377,9 @@
       <c r="U5"/>
     </row>
     <row r="6" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="24">
         <v>10</v>
       </c>
@@ -2424,9 +2418,9 @@
       <c r="U6"/>
     </row>
     <row r="7" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="24">
         <v>10</v>
       </c>
@@ -2465,9 +2459,9 @@
       <c r="U7"/>
     </row>
     <row r="8" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="24">
         <v>10</v>
       </c>
@@ -2506,9 +2500,9 @@
       <c r="U8"/>
     </row>
     <row r="9" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="24">
         <v>10</v>
       </c>
@@ -2547,9 +2541,9 @@
       <c r="U9"/>
     </row>
     <row r="10" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="24">
         <v>10</v>
       </c>
@@ -2588,9 +2582,9 @@
       <c r="U10"/>
     </row>
     <row r="11" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="24">
         <v>10</v>
       </c>
@@ -2629,9 +2623,9 @@
       <c r="U11"/>
     </row>
     <row r="12" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="24">
         <v>10</v>
       </c>
@@ -2670,9 +2664,9 @@
       <c r="U12"/>
     </row>
     <row r="13" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="24">
         <v>10</v>
       </c>
@@ -2711,9 +2705,9 @@
       <c r="U13"/>
     </row>
     <row r="14" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="24">
         <v>10</v>
       </c>
@@ -2752,11 +2746,11 @@
       <c r="U14"/>
     </row>
     <row r="15" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="B15" s="72" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="69" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="25">
@@ -2797,9 +2791,9 @@
       <c r="U15"/>
     </row>
     <row r="16" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="25">
         <v>10</v>
       </c>
@@ -2838,9 +2832,9 @@
       <c r="U16"/>
     </row>
     <row r="17" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="25">
         <v>10</v>
       </c>
@@ -2879,9 +2873,9 @@
       <c r="U17"/>
     </row>
     <row r="18" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="25">
         <v>10</v>
       </c>
@@ -2920,9 +2914,9 @@
       <c r="U18"/>
     </row>
     <row r="19" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="25">
         <v>10</v>
       </c>
@@ -2961,9 +2955,9 @@
       <c r="U19"/>
     </row>
     <row r="20" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="25">
         <v>10</v>
       </c>
@@ -3002,9 +2996,9 @@
       <c r="U20"/>
     </row>
     <row r="21" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="25">
         <v>10</v>
       </c>
@@ -3043,9 +3037,9 @@
       <c r="U21"/>
     </row>
     <row r="22" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="25">
         <v>10</v>
       </c>
@@ -3084,9 +3078,9 @@
       <c r="U22"/>
     </row>
     <row r="23" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="25">
         <v>10</v>
       </c>
@@ -3125,9 +3119,9 @@
       <c r="U23"/>
     </row>
     <row r="24" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="25">
         <v>10</v>
       </c>
@@ -3166,9 +3160,9 @@
       <c r="U24"/>
     </row>
     <row r="25" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="25">
         <v>10</v>
       </c>
@@ -3207,11 +3201,11 @@
       <c r="U25"/>
     </row>
     <row r="26" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
-      <c r="B26" s="73" t="s">
+      <c r="A26" s="67"/>
+      <c r="B26" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="70" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="26">
@@ -3252,9 +3246,9 @@
       <c r="U26"/>
     </row>
     <row r="27" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="26">
         <v>10</v>
       </c>
@@ -3293,9 +3287,9 @@
       <c r="U27"/>
     </row>
     <row r="28" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="26">
         <v>10</v>
       </c>
@@ -3334,9 +3328,9 @@
       <c r="U28"/>
     </row>
     <row r="29" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="26">
         <v>10</v>
       </c>
@@ -3375,9 +3369,9 @@
       <c r="U29"/>
     </row>
     <row r="30" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="26">
         <v>10</v>
       </c>
@@ -3416,9 +3410,9 @@
       <c r="U30"/>
     </row>
     <row r="31" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="26">
         <v>10</v>
       </c>
@@ -3457,9 +3451,9 @@
       <c r="U31"/>
     </row>
     <row r="32" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="26">
         <v>10</v>
       </c>
@@ -3497,9 +3491,9 @@
       <c r="U32"/>
     </row>
     <row r="33" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="26">
         <v>10</v>
       </c>
@@ -3537,9 +3531,9 @@
       <c r="U33"/>
     </row>
     <row r="34" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="26">
         <v>10</v>
       </c>
@@ -3577,9 +3571,9 @@
       <c r="U34"/>
     </row>
     <row r="35" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="26">
         <v>10</v>
       </c>
@@ -3617,9 +3611,9 @@
       <c r="U35"/>
     </row>
     <row r="36" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="26">
         <v>10</v>
       </c>
@@ -3657,11 +3651,11 @@
       <c r="U36"/>
     </row>
     <row r="37" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
-      <c r="B37" s="74" t="s">
+      <c r="A37" s="67"/>
+      <c r="B37" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="71" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="27">
@@ -3701,9 +3695,9 @@
       <c r="U37"/>
     </row>
     <row r="38" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="64"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="27">
         <v>10</v>
       </c>
@@ -3741,9 +3735,9 @@
       <c r="U38"/>
     </row>
     <row r="39" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="64"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="27">
         <v>10</v>
       </c>
@@ -3781,9 +3775,9 @@
       <c r="U39"/>
     </row>
     <row r="40" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="27">
         <v>10</v>
       </c>
@@ -3821,9 +3815,9 @@
       <c r="U40"/>
     </row>
     <row r="41" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="64"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
       <c r="D41" s="27">
         <v>10</v>
       </c>
@@ -3861,9 +3855,9 @@
       <c r="U41"/>
     </row>
     <row r="42" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="64"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
       <c r="D42" s="27">
         <v>10</v>
       </c>
@@ -3901,9 +3895,9 @@
       <c r="U42"/>
     </row>
     <row r="43" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="64"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="27">
         <v>10</v>
       </c>
@@ -3941,9 +3935,9 @@
       <c r="U43"/>
     </row>
     <row r="44" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="64"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
       <c r="D44" s="27">
         <v>10</v>
       </c>
@@ -3981,9 +3975,9 @@
       <c r="U44"/>
     </row>
     <row r="45" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="64"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
       <c r="D45" s="27">
         <v>10</v>
       </c>
@@ -4021,9 +4015,9 @@
       <c r="U45"/>
     </row>
     <row r="46" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="64"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="27">
         <v>10</v>
       </c>
@@ -4061,9 +4055,9 @@
       <c r="U46"/>
     </row>
     <row r="47" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="64"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
       <c r="D47" s="27">
         <v>10</v>
       </c>
@@ -4114,21 +4108,21 @@
       <c r="A49" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="65" t="s">
+      <c r="B49" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="67"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="74"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49"/>
@@ -4142,27 +4136,27 @@
       <c r="A50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64" t="s">
+      <c r="C50" s="67"/>
+      <c r="D50" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64" t="s">
-        <v>260</v>
-      </c>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64" t="s">
-        <v>261</v>
-      </c>
-      <c r="L50" s="64"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="L50" s="67"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50"/>
@@ -4173,7 +4167,7 @@
       <c r="U50"/>
     </row>
     <row r="51" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="67" t="s">
         <v>204</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -4183,7 +4177,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>28</v>
@@ -4219,11 +4213,11 @@
       <c r="U51"/>
     </row>
     <row r="52" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="64"/>
-      <c r="B52" s="71" t="s">
+      <c r="A52" s="67"/>
+      <c r="B52" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="9">
@@ -4263,9 +4257,9 @@
       <c r="U52"/>
     </row>
     <row r="53" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="64"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="24">
         <v>11</v>
       </c>
@@ -4303,9 +4297,9 @@
       <c r="U53"/>
     </row>
     <row r="54" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="64"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="24">
         <v>11</v>
       </c>
@@ -4343,9 +4337,9 @@
       <c r="U54"/>
     </row>
     <row r="55" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="64"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="24">
         <v>11</v>
       </c>
@@ -4383,9 +4377,9 @@
       <c r="U55"/>
     </row>
     <row r="56" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="64"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
       <c r="D56" s="24">
         <v>11</v>
       </c>
@@ -4423,9 +4417,9 @@
       <c r="U56"/>
     </row>
     <row r="57" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="64"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="24">
         <v>11</v>
       </c>
@@ -4463,9 +4457,9 @@
       <c r="U57"/>
     </row>
     <row r="58" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="64"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
       <c r="D58" s="24">
         <v>11</v>
       </c>
@@ -4503,9 +4497,9 @@
       <c r="U58"/>
     </row>
     <row r="59" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="64"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="24">
         <v>11</v>
       </c>
@@ -4543,9 +4537,9 @@
       <c r="U59"/>
     </row>
     <row r="60" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="64"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="24">
         <v>11</v>
       </c>
@@ -4583,9 +4577,9 @@
       <c r="U60"/>
     </row>
     <row r="61" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="64"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="24">
         <v>11</v>
       </c>
@@ -4623,9 +4617,9 @@
       <c r="U61"/>
     </row>
     <row r="62" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="64"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
       <c r="D62" s="24">
         <v>11</v>
       </c>
@@ -4663,9 +4657,9 @@
       <c r="U62"/>
     </row>
     <row r="63" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="64"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
+      <c r="A63" s="67"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="24">
         <v>11</v>
       </c>
@@ -4703,11 +4697,11 @@
       <c r="U63"/>
     </row>
     <row r="64" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="64"/>
-      <c r="B64" s="72" t="s">
+      <c r="A64" s="67"/>
+      <c r="B64" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="72" t="s">
+      <c r="C64" s="69" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="10">
@@ -4747,9 +4741,9 @@
       <c r="U64"/>
     </row>
     <row r="65" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="64"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
       <c r="D65" s="25">
         <v>11</v>
       </c>
@@ -4787,9 +4781,9 @@
       <c r="U65"/>
     </row>
     <row r="66" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="64"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
       <c r="D66" s="25">
         <v>11</v>
       </c>
@@ -4827,9 +4821,9 @@
       <c r="U66"/>
     </row>
     <row r="67" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="64"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
       <c r="D67" s="25">
         <v>11</v>
       </c>
@@ -4867,9 +4861,9 @@
       <c r="U67"/>
     </row>
     <row r="68" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="64"/>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
       <c r="D68" s="25">
         <v>11</v>
       </c>
@@ -4907,9 +4901,9 @@
       <c r="U68"/>
     </row>
     <row r="69" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="64"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
+      <c r="A69" s="67"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
       <c r="D69" s="25">
         <v>11</v>
       </c>
@@ -4947,9 +4941,9 @@
       <c r="U69"/>
     </row>
     <row r="70" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="64"/>
-      <c r="B70" s="72"/>
-      <c r="C70" s="72"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
       <c r="D70" s="25">
         <v>11</v>
       </c>
@@ -4987,9 +4981,9 @@
       <c r="U70"/>
     </row>
     <row r="71" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="64"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
       <c r="D71" s="25">
         <v>11</v>
       </c>
@@ -5027,9 +5021,9 @@
       <c r="U71"/>
     </row>
     <row r="72" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="64"/>
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
       <c r="D72" s="25">
         <v>11</v>
       </c>
@@ -5067,9 +5061,9 @@
       <c r="U72"/>
     </row>
     <row r="73" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="64"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
+      <c r="A73" s="67"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
       <c r="D73" s="25">
         <v>11</v>
       </c>
@@ -5107,9 +5101,9 @@
       <c r="U73"/>
     </row>
     <row r="74" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="64"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
       <c r="D74" s="25">
         <v>11</v>
       </c>
@@ -5147,9 +5141,9 @@
       <c r="U74"/>
     </row>
     <row r="75" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="64"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
       <c r="D75" s="25">
         <v>11</v>
       </c>
@@ -5187,11 +5181,11 @@
       <c r="U75"/>
     </row>
     <row r="76" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="64"/>
-      <c r="B76" s="73" t="s">
+      <c r="A76" s="67"/>
+      <c r="B76" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="73" t="s">
+      <c r="C76" s="70" t="s">
         <v>41</v>
       </c>
       <c r="D76" s="11">
@@ -5231,9 +5225,9 @@
       <c r="U76"/>
     </row>
     <row r="77" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="64"/>
-      <c r="B77" s="73"/>
-      <c r="C77" s="73"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="70"/>
       <c r="D77" s="26">
         <v>11</v>
       </c>
@@ -5271,9 +5265,9 @@
       <c r="U77"/>
     </row>
     <row r="78" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="64"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="73"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="70"/>
       <c r="D78" s="26">
         <v>11</v>
       </c>
@@ -5311,9 +5305,9 @@
       <c r="U78"/>
     </row>
     <row r="79" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="64"/>
-      <c r="B79" s="73"/>
-      <c r="C79" s="73"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="70"/>
       <c r="D79" s="26">
         <v>11</v>
       </c>
@@ -5351,9 +5345,9 @@
       <c r="U79"/>
     </row>
     <row r="80" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="64"/>
-      <c r="B80" s="73"/>
-      <c r="C80" s="73"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="70"/>
       <c r="D80" s="26">
         <v>11</v>
       </c>
@@ -5391,9 +5385,9 @@
       <c r="U80"/>
     </row>
     <row r="81" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="64"/>
-      <c r="B81" s="73"/>
-      <c r="C81" s="73"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="70"/>
       <c r="D81" s="26">
         <v>11</v>
       </c>
@@ -5431,9 +5425,9 @@
       <c r="U81"/>
     </row>
     <row r="82" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="64"/>
-      <c r="B82" s="73"/>
-      <c r="C82" s="73"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
       <c r="D82" s="26">
         <v>11</v>
       </c>
@@ -5471,9 +5465,9 @@
       <c r="U82"/>
     </row>
     <row r="83" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="64"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="70"/>
       <c r="D83" s="26">
         <v>11</v>
       </c>
@@ -5511,9 +5505,9 @@
       <c r="U83"/>
     </row>
     <row r="84" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="64"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="73"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
       <c r="D84" s="26">
         <v>11</v>
       </c>
@@ -5551,9 +5545,9 @@
       <c r="U84"/>
     </row>
     <row r="85" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="64"/>
-      <c r="B85" s="73"/>
-      <c r="C85" s="73"/>
+      <c r="A85" s="67"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
       <c r="D85" s="26">
         <v>11</v>
       </c>
@@ -5591,9 +5585,9 @@
       <c r="U85"/>
     </row>
     <row r="86" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="64"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="73"/>
+      <c r="A86" s="67"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
       <c r="D86" s="26">
         <v>11</v>
       </c>
@@ -5631,9 +5625,9 @@
       <c r="U86"/>
     </row>
     <row r="87" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="64"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="73"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
       <c r="D87" s="26">
         <v>11</v>
       </c>
@@ -5671,11 +5665,11 @@
       <c r="U87"/>
     </row>
     <row r="88" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="64"/>
-      <c r="B88" s="74" t="s">
+      <c r="A88" s="67"/>
+      <c r="B88" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="74" t="s">
+      <c r="C88" s="71" t="s">
         <v>43</v>
       </c>
       <c r="D88" s="12">
@@ -5715,9 +5709,9 @@
       <c r="U88"/>
     </row>
     <row r="89" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="64"/>
-      <c r="B89" s="74"/>
-      <c r="C89" s="74"/>
+      <c r="A89" s="67"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="71"/>
       <c r="D89" s="27">
         <v>11</v>
       </c>
@@ -5755,9 +5749,9 @@
       <c r="U89"/>
     </row>
     <row r="90" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="64"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="74"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
       <c r="D90" s="27">
         <v>11</v>
       </c>
@@ -5795,9 +5789,9 @@
       <c r="U90"/>
     </row>
     <row r="91" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="64"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="74"/>
+      <c r="A91" s="67"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="71"/>
       <c r="D91" s="27">
         <v>11</v>
       </c>
@@ -5835,9 +5829,9 @@
       <c r="U91"/>
     </row>
     <row r="92" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="64"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="74"/>
+      <c r="A92" s="67"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
       <c r="D92" s="27">
         <v>11</v>
       </c>
@@ -5875,9 +5869,9 @@
       <c r="U92"/>
     </row>
     <row r="93" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="64"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="74"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="71"/>
+      <c r="C93" s="71"/>
       <c r="D93" s="27">
         <v>11</v>
       </c>
@@ -5915,9 +5909,9 @@
       <c r="U93"/>
     </row>
     <row r="94" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="64"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="74"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="71"/>
       <c r="D94" s="27">
         <v>11</v>
       </c>
@@ -5955,9 +5949,9 @@
       <c r="U94"/>
     </row>
     <row r="95" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="64"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="74"/>
+      <c r="A95" s="67"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="71"/>
       <c r="D95" s="27">
         <v>11</v>
       </c>
@@ -5995,9 +5989,9 @@
       <c r="U95"/>
     </row>
     <row r="96" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="64"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="74"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="71"/>
       <c r="D96" s="27">
         <v>11</v>
       </c>
@@ -6035,9 +6029,9 @@
       <c r="U96"/>
     </row>
     <row r="97" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="64"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="74"/>
+      <c r="A97" s="67"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="71"/>
       <c r="D97" s="27">
         <v>11</v>
       </c>
@@ -6075,9 +6069,9 @@
       <c r="U97"/>
     </row>
     <row r="98" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="64"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="74"/>
+      <c r="A98" s="67"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="71"/>
       <c r="D98" s="27">
         <v>11</v>
       </c>
@@ -6115,9 +6109,9 @@
       <c r="U98"/>
     </row>
     <row r="99" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="64"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="74"/>
+      <c r="A99" s="67"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
       <c r="D99" s="27">
         <v>11</v>
       </c>
@@ -6168,21 +6162,21 @@
       <c r="A101" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B101" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="65" t="s">
+      <c r="B101" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="65"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
-      <c r="K101" s="66"/>
-      <c r="L101" s="67"/>
+      <c r="H101" s="73"/>
+      <c r="I101" s="73"/>
+      <c r="J101" s="73"/>
+      <c r="K101" s="73"/>
+      <c r="L101" s="74"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101"/>
@@ -6196,27 +6190,27 @@
       <c r="A102" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="64" t="s">
+      <c r="B102" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C102" s="64"/>
-      <c r="D102" s="64" t="s">
+      <c r="C102" s="67"/>
+      <c r="D102" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="H102" s="64"/>
-      <c r="I102" s="64" t="s">
-        <v>260</v>
-      </c>
-      <c r="J102" s="64"/>
-      <c r="K102" s="64" t="s">
-        <v>261</v>
-      </c>
-      <c r="L102" s="64"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="J102" s="67"/>
+      <c r="K102" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="L102" s="67"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102"/>
@@ -6227,7 +6221,7 @@
       <c r="U102"/>
     </row>
     <row r="103" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="64" t="s">
+      <c r="A103" s="67" t="s">
         <v>205</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -6237,7 +6231,7 @@
         <v>17</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>28</v>
@@ -6273,11 +6267,11 @@
       <c r="U103"/>
     </row>
     <row r="104" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="64"/>
-      <c r="B104" s="71" t="s">
+      <c r="A104" s="67"/>
+      <c r="B104" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C104" s="71" t="s">
+      <c r="C104" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="9">
@@ -6317,9 +6311,9 @@
       <c r="U104"/>
     </row>
     <row r="105" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="64"/>
-      <c r="B105" s="71"/>
-      <c r="C105" s="71"/>
+      <c r="A105" s="67"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="68"/>
       <c r="D105" s="24">
         <v>8</v>
       </c>
@@ -6357,9 +6351,9 @@
       <c r="U105"/>
     </row>
     <row r="106" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="64"/>
-      <c r="B106" s="71"/>
-      <c r="C106" s="71"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="68"/>
       <c r="D106" s="24">
         <v>8</v>
       </c>
@@ -6397,9 +6391,9 @@
       <c r="U106"/>
     </row>
     <row r="107" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="64"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="71"/>
+      <c r="A107" s="67"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="68"/>
       <c r="D107" s="24">
         <v>8</v>
       </c>
@@ -6437,9 +6431,9 @@
       <c r="U107"/>
     </row>
     <row r="108" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="64"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="71"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="68"/>
       <c r="D108" s="24">
         <v>8</v>
       </c>
@@ -6477,9 +6471,9 @@
       <c r="U108"/>
     </row>
     <row r="109" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="64"/>
-      <c r="B109" s="71"/>
-      <c r="C109" s="71"/>
+      <c r="A109" s="67"/>
+      <c r="B109" s="68"/>
+      <c r="C109" s="68"/>
       <c r="D109" s="24">
         <v>8</v>
       </c>
@@ -6517,9 +6511,9 @@
       <c r="U109"/>
     </row>
     <row r="110" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="64"/>
-      <c r="B110" s="71"/>
-      <c r="C110" s="71"/>
+      <c r="A110" s="67"/>
+      <c r="B110" s="68"/>
+      <c r="C110" s="68"/>
       <c r="D110" s="24">
         <v>8</v>
       </c>
@@ -6557,9 +6551,9 @@
       <c r="U110"/>
     </row>
     <row r="111" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="64"/>
-      <c r="B111" s="71"/>
-      <c r="C111" s="71"/>
+      <c r="A111" s="67"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="68"/>
       <c r="D111" s="24">
         <v>8</v>
       </c>
@@ -6597,9 +6591,9 @@
       <c r="U111"/>
     </row>
     <row r="112" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="64"/>
-      <c r="B112" s="71"/>
-      <c r="C112" s="71"/>
+      <c r="A112" s="67"/>
+      <c r="B112" s="68"/>
+      <c r="C112" s="68"/>
       <c r="D112" s="24">
         <v>8</v>
       </c>
@@ -6637,11 +6631,11 @@
       <c r="U112"/>
     </row>
     <row r="113" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="64"/>
-      <c r="B113" s="72" t="s">
+      <c r="A113" s="67"/>
+      <c r="B113" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C113" s="72" t="s">
+      <c r="C113" s="69" t="s">
         <v>39</v>
       </c>
       <c r="D113" s="10">
@@ -6681,9 +6675,9 @@
       <c r="U113"/>
     </row>
     <row r="114" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="64"/>
-      <c r="B114" s="72"/>
-      <c r="C114" s="72"/>
+      <c r="A114" s="67"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="69"/>
       <c r="D114" s="10">
         <v>8</v>
       </c>
@@ -6721,9 +6715,9 @@
       <c r="U114"/>
     </row>
     <row r="115" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="64"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="72"/>
+      <c r="A115" s="67"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="69"/>
       <c r="D115" s="10">
         <v>8</v>
       </c>
@@ -6761,9 +6755,9 @@
       <c r="U115"/>
     </row>
     <row r="116" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="64"/>
-      <c r="B116" s="72"/>
-      <c r="C116" s="72"/>
+      <c r="A116" s="67"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="69"/>
       <c r="D116" s="10">
         <v>8</v>
       </c>
@@ -6801,9 +6795,9 @@
       <c r="U116"/>
     </row>
     <row r="117" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="64"/>
-      <c r="B117" s="72"/>
-      <c r="C117" s="72"/>
+      <c r="A117" s="67"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="69"/>
       <c r="D117" s="10">
         <v>8</v>
       </c>
@@ -6841,9 +6835,9 @@
       <c r="U117"/>
     </row>
     <row r="118" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="64"/>
-      <c r="B118" s="72"/>
-      <c r="C118" s="72"/>
+      <c r="A118" s="67"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="69"/>
       <c r="D118" s="10">
         <v>8</v>
       </c>
@@ -6881,9 +6875,9 @@
       <c r="U118"/>
     </row>
     <row r="119" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="64"/>
-      <c r="B119" s="72"/>
-      <c r="C119" s="72"/>
+      <c r="A119" s="67"/>
+      <c r="B119" s="69"/>
+      <c r="C119" s="69"/>
       <c r="D119" s="10">
         <v>8</v>
       </c>
@@ -6921,9 +6915,9 @@
       <c r="U119"/>
     </row>
     <row r="120" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="64"/>
-      <c r="B120" s="72"/>
-      <c r="C120" s="72"/>
+      <c r="A120" s="67"/>
+      <c r="B120" s="69"/>
+      <c r="C120" s="69"/>
       <c r="D120" s="10">
         <v>8</v>
       </c>
@@ -6961,9 +6955,9 @@
       <c r="U120"/>
     </row>
     <row r="121" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="64"/>
-      <c r="B121" s="72"/>
-      <c r="C121" s="72"/>
+      <c r="A121" s="67"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="69"/>
       <c r="D121" s="10">
         <v>8</v>
       </c>
@@ -7001,11 +6995,11 @@
       <c r="U121"/>
     </row>
     <row r="122" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="64"/>
-      <c r="B122" s="73" t="s">
+      <c r="A122" s="67"/>
+      <c r="B122" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C122" s="73" t="s">
+      <c r="C122" s="70" t="s">
         <v>41</v>
       </c>
       <c r="D122" s="11">
@@ -7045,9 +7039,9 @@
       <c r="U122"/>
     </row>
     <row r="123" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="64"/>
-      <c r="B123" s="73"/>
-      <c r="C123" s="73"/>
+      <c r="A123" s="67"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
       <c r="D123" s="11">
         <v>8</v>
       </c>
@@ -7085,9 +7079,9 @@
       <c r="U123"/>
     </row>
     <row r="124" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="64"/>
-      <c r="B124" s="73"/>
-      <c r="C124" s="73"/>
+      <c r="A124" s="67"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
       <c r="D124" s="11">
         <v>8</v>
       </c>
@@ -7125,9 +7119,9 @@
       <c r="U124"/>
     </row>
     <row r="125" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="64"/>
-      <c r="B125" s="73"/>
-      <c r="C125" s="73"/>
+      <c r="A125" s="67"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="70"/>
       <c r="D125" s="11">
         <v>8</v>
       </c>
@@ -7165,9 +7159,9 @@
       <c r="U125"/>
     </row>
     <row r="126" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="64"/>
-      <c r="B126" s="73"/>
-      <c r="C126" s="73"/>
+      <c r="A126" s="67"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="70"/>
       <c r="D126" s="11">
         <v>8</v>
       </c>
@@ -7205,9 +7199,9 @@
       <c r="U126"/>
     </row>
     <row r="127" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="64"/>
-      <c r="B127" s="73"/>
-      <c r="C127" s="73"/>
+      <c r="A127" s="67"/>
+      <c r="B127" s="70"/>
+      <c r="C127" s="70"/>
       <c r="D127" s="11">
         <v>8</v>
       </c>
@@ -7245,9 +7239,9 @@
       <c r="U127"/>
     </row>
     <row r="128" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="64"/>
-      <c r="B128" s="73"/>
-      <c r="C128" s="73"/>
+      <c r="A128" s="67"/>
+      <c r="B128" s="70"/>
+      <c r="C128" s="70"/>
       <c r="D128" s="11">
         <v>8</v>
       </c>
@@ -7285,9 +7279,9 @@
       <c r="U128"/>
     </row>
     <row r="129" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="64"/>
-      <c r="B129" s="73"/>
-      <c r="C129" s="73"/>
+      <c r="A129" s="67"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="70"/>
       <c r="D129" s="11">
         <v>8</v>
       </c>
@@ -7325,9 +7319,9 @@
       <c r="U129"/>
     </row>
     <row r="130" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="64"/>
-      <c r="B130" s="73"/>
-      <c r="C130" s="73"/>
+      <c r="A130" s="67"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
       <c r="D130" s="11">
         <v>8</v>
       </c>
@@ -7365,11 +7359,11 @@
       <c r="U130"/>
     </row>
     <row r="131" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="64"/>
-      <c r="B131" s="74" t="s">
+      <c r="A131" s="67"/>
+      <c r="B131" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C131" s="74" t="s">
+      <c r="C131" s="71" t="s">
         <v>43</v>
       </c>
       <c r="D131" s="12">
@@ -7409,9 +7403,9 @@
       <c r="U131"/>
     </row>
     <row r="132" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="64"/>
-      <c r="B132" s="74"/>
-      <c r="C132" s="74"/>
+      <c r="A132" s="67"/>
+      <c r="B132" s="71"/>
+      <c r="C132" s="71"/>
       <c r="D132" s="12">
         <v>8</v>
       </c>
@@ -7441,9 +7435,9 @@
       </c>
     </row>
     <row r="133" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="64"/>
-      <c r="B133" s="74"/>
-      <c r="C133" s="74"/>
+      <c r="A133" s="67"/>
+      <c r="B133" s="71"/>
+      <c r="C133" s="71"/>
       <c r="D133" s="12">
         <v>8</v>
       </c>
@@ -7473,9 +7467,9 @@
       </c>
     </row>
     <row r="134" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="64"/>
-      <c r="B134" s="74"/>
-      <c r="C134" s="74"/>
+      <c r="A134" s="67"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="71"/>
       <c r="D134" s="12">
         <v>8</v>
       </c>
@@ -7505,9 +7499,9 @@
       </c>
     </row>
     <row r="135" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="64"/>
-      <c r="B135" s="74"/>
-      <c r="C135" s="74"/>
+      <c r="A135" s="67"/>
+      <c r="B135" s="71"/>
+      <c r="C135" s="71"/>
       <c r="D135" s="12">
         <v>8</v>
       </c>
@@ -7537,9 +7531,9 @@
       </c>
     </row>
     <row r="136" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="64"/>
-      <c r="B136" s="74"/>
-      <c r="C136" s="74"/>
+      <c r="A136" s="67"/>
+      <c r="B136" s="71"/>
+      <c r="C136" s="71"/>
       <c r="D136" s="12">
         <v>8</v>
       </c>
@@ -7569,9 +7563,9 @@
       </c>
     </row>
     <row r="137" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="64"/>
-      <c r="B137" s="74"/>
-      <c r="C137" s="74"/>
+      <c r="A137" s="67"/>
+      <c r="B137" s="71"/>
+      <c r="C137" s="71"/>
       <c r="D137" s="12">
         <v>8</v>
       </c>
@@ -7601,9 +7595,9 @@
       </c>
     </row>
     <row r="138" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="64"/>
-      <c r="B138" s="74"/>
-      <c r="C138" s="74"/>
+      <c r="A138" s="67"/>
+      <c r="B138" s="71"/>
+      <c r="C138" s="71"/>
       <c r="D138" s="12">
         <v>8</v>
       </c>
@@ -7633,9 +7627,9 @@
       </c>
     </row>
     <row r="139" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="64"/>
-      <c r="B139" s="74"/>
-      <c r="C139" s="74"/>
+      <c r="A139" s="67"/>
+      <c r="B139" s="71"/>
+      <c r="C139" s="71"/>
       <c r="D139" s="12">
         <v>8</v>
       </c>
@@ -7666,6 +7660,41 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="G101:L101"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="G49:L49"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="A3:A47"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="C4:C14"/>
+    <mergeCell ref="B15:B25"/>
+    <mergeCell ref="C15:C25"/>
+    <mergeCell ref="B26:B36"/>
+    <mergeCell ref="C26:C36"/>
+    <mergeCell ref="B37:B47"/>
+    <mergeCell ref="C37:C47"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="A51:A99"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="C52:C63"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="C64:C75"/>
+    <mergeCell ref="B76:B87"/>
+    <mergeCell ref="C76:C87"/>
+    <mergeCell ref="B88:B99"/>
+    <mergeCell ref="C88:C99"/>
     <mergeCell ref="B101:F101"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="D102:F102"/>
@@ -7679,41 +7708,6 @@
     <mergeCell ref="C122:C130"/>
     <mergeCell ref="B131:B139"/>
     <mergeCell ref="C131:C139"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="A51:A99"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="C52:C63"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="C64:C75"/>
-    <mergeCell ref="B76:B87"/>
-    <mergeCell ref="C76:C87"/>
-    <mergeCell ref="B88:B99"/>
-    <mergeCell ref="C88:C99"/>
-    <mergeCell ref="A3:A47"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="C4:C14"/>
-    <mergeCell ref="B15:B25"/>
-    <mergeCell ref="C15:C25"/>
-    <mergeCell ref="B26:B36"/>
-    <mergeCell ref="C26:C36"/>
-    <mergeCell ref="B37:B47"/>
-    <mergeCell ref="C37:C47"/>
-    <mergeCell ref="G49:L49"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="G101:L101"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7724,8 +7718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7B7AE7-DC14-4FA4-9486-A930955449FE}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7759,7 +7753,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
@@ -7970,7 +7964,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
@@ -8211,7 +8205,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="D20" s="78"/>
       <c r="E20" s="78"/>
@@ -8422,7 +8416,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="D28" s="78"/>
       <c r="E28" s="78"/>
@@ -9114,15 +9108,15 @@
       <c r="A1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -9178,7 +9172,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>28</v>
@@ -10504,7 +10498,7 @@
         <v>37</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
@@ -10542,7 +10536,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>28</v>
@@ -11638,7 +11632,7 @@
         <v>37</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C101" s="29"/>
       <c r="D101" s="29"/>
@@ -11680,7 +11674,7 @@
         <v>17</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E103" s="23" t="s">
         <v>28</v>
@@ -12532,15 +12526,15 @@
       <c r="A1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -12596,7 +12590,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E3" s="44" t="s">
         <v>28</v>
@@ -13922,7 +13916,7 @@
         <v>37</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
@@ -13960,7 +13954,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E51" s="44" t="s">
         <v>28</v>
@@ -15056,7 +15050,7 @@
         <v>37</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C101" s="29"/>
       <c r="D101" s="29"/>
@@ -15098,7 +15092,7 @@
         <v>17</v>
       </c>
       <c r="D103" s="44" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E103" s="44" t="s">
         <v>28</v>
@@ -15940,18 +15934,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B2" s="36">
         <v>0.30269000000000001</v>
@@ -15962,7 +15956,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B3" s="36">
         <v>0.32712200000000002</v>
@@ -15973,7 +15967,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B4" s="36">
         <v>0.33668999999999999</v>
@@ -15984,7 +15978,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B5" s="36">
         <v>0.34276899999999999</v>
@@ -15995,7 +15989,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B6" s="36">
         <v>0.348827</v>
@@ -16006,7 +16000,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B7" s="36">
         <v>0.34665800000000002</v>
@@ -16017,7 +16011,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B8" s="36">
         <v>0.33921400000000002</v>
@@ -16028,7 +16022,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B9" s="36">
         <v>0.32963100000000001</v>
@@ -16039,7 +16033,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B10" s="36">
         <v>0.32026700000000002</v>
@@ -16050,7 +16044,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B11" s="36">
         <v>0.31898399999999999</v>
@@ -16061,7 +16055,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B12" s="36">
         <v>0.304923</v>
@@ -16072,7 +16066,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B13" s="36">
         <v>0.29835699999999998</v>
@@ -16083,7 +16077,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B14" s="36">
         <v>0.31573000000000001</v>
@@ -16094,7 +16088,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B15" s="36">
         <v>0.34201900000000002</v>
@@ -16105,7 +16099,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B16" s="36">
         <v>0.348109</v>
@@ -16116,7 +16110,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B17" s="36">
         <v>0.35492899999999999</v>
@@ -16127,7 +16121,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" s="36">
         <v>0.34892299999999998</v>
@@ -16138,7 +16132,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B19" s="36">
         <v>0.347941</v>
@@ -16149,7 +16143,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B20" s="36">
         <v>0.33691399999999999</v>
@@ -16160,7 +16154,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B21" s="36">
         <v>0.32966699999999999</v>
@@ -16171,7 +16165,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B22" s="36">
         <v>0.31861299999999998</v>
@@ -16182,7 +16176,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B23" s="36">
         <v>0.31001600000000001</v>
@@ -16193,7 +16187,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B24" s="36">
         <v>0.29860500000000001</v>
@@ -16204,7 +16198,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B25" s="36">
         <v>0.341443</v>
@@ -16215,7 +16209,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B26" s="36">
         <v>0.34538200000000002</v>
@@ -16226,7 +16220,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B27" s="36">
         <v>0.34998699999999999</v>
@@ -16237,7 +16231,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B28" s="36">
         <v>0.357682</v>
@@ -16248,7 +16242,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B29" s="36">
         <v>0.35251700000000002</v>
@@ -16259,7 +16253,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B30" s="36">
         <v>0.34567799999999999</v>
@@ -16270,7 +16264,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B31" s="36">
         <v>0.343997</v>
@@ -16281,7 +16275,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B32" s="36">
         <v>0.32057099999999999</v>
@@ -16292,7 +16286,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B33" s="36">
         <v>0.29864099999999999</v>
@@ -16303,7 +16297,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B34" s="36">
         <v>0.27883000000000002</v>
@@ -16314,7 +16308,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B35" s="36">
         <v>0.29370299999999999</v>
@@ -16325,7 +16319,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B36" s="36">
         <v>0.30474699999999999</v>
@@ -16336,7 +16330,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B37" s="36">
         <v>0.34628399999999998</v>
@@ -16347,7 +16341,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B38" s="36">
         <v>0.34905399999999998</v>
@@ -16358,7 +16352,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B39" s="36">
         <v>0.35151300000000002</v>
@@ -16369,7 +16363,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B40" s="36">
         <v>0.34954600000000002</v>
@@ -16380,7 +16374,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B41" s="36">
         <v>0.34748099999999998</v>
@@ -16391,7 +16385,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B42" s="36">
         <v>0.332374</v>
@@ -16402,7 +16396,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B43" s="36">
         <v>0.34447899999999998</v>
@@ -16413,7 +16407,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B44" s="36">
         <v>0.34447899999999998</v>
@@ -16424,7 +16418,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B45" s="36">
         <v>0.30452699999999999</v>
@@ -16435,7 +16429,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B46" s="36">
         <v>0.46151900000000001</v>
@@ -16446,7 +16440,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B47" s="36">
         <v>0.46765499999999999</v>
@@ -16457,7 +16451,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B48" s="36">
         <v>0.495591</v>
@@ -16468,7 +16462,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B49" s="36">
         <v>0.49853900000000001</v>
@@ -16479,7 +16473,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B50" s="36">
         <v>0.61653500000000006</v>
@@ -16490,7 +16484,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B51" s="36">
         <v>0.58015799999999995</v>
@@ -16501,7 +16495,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B52" s="36">
         <v>0.49776399999999998</v>
@@ -16512,7 +16506,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B53" s="36">
         <v>0.47361500000000001</v>
@@ -16523,7 +16517,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B54" s="36">
         <v>0.46442099999999997</v>
@@ -16534,7 +16528,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B55" s="36">
         <v>0.46442099999999997</v>
@@ -16545,7 +16539,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B56" s="36">
         <v>0.46442099999999997</v>
@@ -16556,7 +16550,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B57" s="36">
         <v>0.46442099999999997</v>
@@ -16567,7 +16561,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B58" s="36">
         <v>0.41757699999999998</v>
@@ -16578,7 +16572,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B59" s="36">
         <v>0.438114</v>
@@ -16589,7 +16583,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B60" s="36">
         <v>0.50851599999999997</v>
@@ -16600,7 +16594,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B61" s="36">
         <v>0.51621899999999998</v>
@@ -16611,7 +16605,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B62" s="36">
         <v>0.67303599999999997</v>
@@ -16622,7 +16616,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B63" s="36">
         <v>0.63755899999999999</v>
@@ -16633,7 +16627,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B64" s="36">
         <v>0.50893999999999995</v>
@@ -16644,7 +16638,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B65" s="36">
         <v>0.46803299999999998</v>
@@ -16655,7 +16649,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B66" s="36">
         <v>0.43381199999999998</v>
@@ -16666,7 +16660,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B67" s="36">
         <v>0.43381199999999998</v>
@@ -16677,7 +16671,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B68" s="36">
         <v>0.43381199999999998</v>
@@ -16688,7 +16682,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B69" s="36">
         <v>0.43381199999999998</v>
@@ -16699,7 +16693,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B70" s="36">
         <v>0.43293799999999999</v>
@@ -16710,7 +16704,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B71" s="36">
         <v>0.46611000000000002</v>
@@ -16721,7 +16715,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B72" s="36">
         <v>0.50451599999999996</v>
@@ -16732,7 +16726,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B73" s="36">
         <v>0.51706399999999997</v>
@@ -16743,7 +16737,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B74" s="36">
         <v>0.67093599999999998</v>
@@ -16754,7 +16748,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B75" s="36">
         <v>0.64397300000000002</v>
@@ -16765,7 +16759,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B76" s="36">
         <v>0.51313200000000003</v>
@@ -16776,7 +16770,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B77" s="36">
         <v>0.46691899999999997</v>
@@ -16787,7 +16781,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B78" s="36">
         <v>0.44099500000000003</v>
@@ -16798,7 +16792,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B79" s="36">
         <v>0.44099500000000003</v>
@@ -16809,7 +16803,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B80" s="36">
         <v>0.44099500000000003</v>
@@ -16820,7 +16814,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B81" s="36">
         <v>0.44099500000000003</v>
@@ -16831,7 +16825,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B82" s="36">
         <v>0.41884100000000002</v>
@@ -16842,7 +16836,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B83" s="36">
         <v>0.42999599999999999</v>
@@ -16853,7 +16847,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B84" s="36">
         <v>0.50705999999999996</v>
@@ -16864,7 +16858,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B85" s="36">
         <v>0.509687</v>
@@ -16875,7 +16869,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B86" s="36">
         <v>0.66756400000000005</v>
@@ -16886,7 +16880,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B87" s="36">
         <v>0.63280499999999995</v>
@@ -16897,7 +16891,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B88" s="36">
         <v>0.50899300000000003</v>
@@ -16908,7 +16902,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B89" s="36">
         <v>0.46899099999999999</v>
@@ -16919,7 +16913,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B90" s="36">
         <v>0.42686400000000002</v>
@@ -16930,7 +16924,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B91" s="36">
         <v>0.42686400000000002</v>
@@ -16941,7 +16935,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B92" s="36">
         <v>0.42686400000000002</v>
@@ -16952,7 +16946,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B93" s="36">
         <v>0.42686400000000002</v>
@@ -16963,7 +16957,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B94" s="36">
         <v>0.35571700000000001</v>
@@ -16974,7 +16968,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B95" s="36">
         <v>0.47488200000000003</v>
@@ -16985,7 +16979,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B96" s="36">
         <v>0.62468000000000001</v>
@@ -16996,7 +16990,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B97" s="36">
         <v>0.63460499999999997</v>
@@ -17007,7 +17001,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B98" s="36">
         <v>0.64703100000000002</v>
@@ -17018,7 +17012,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B99" s="36">
         <v>0.64584600000000003</v>
@@ -17029,7 +17023,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B100" s="36">
         <v>0.63199399999999994</v>
@@ -17040,7 +17034,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B101" s="36">
         <v>0.56478399999999995</v>
@@ -17051,7 +17045,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B102" s="36">
         <v>0.37148599999999998</v>
@@ -17062,7 +17056,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B103" s="36">
         <v>0.36990600000000001</v>
@@ -17073,7 +17067,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B104" s="36">
         <v>0.46138200000000001</v>
@@ -17084,7 +17078,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B105" s="36">
         <v>0.66051499999999996</v>
@@ -17095,7 +17089,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B106" s="36">
         <v>0.67664299999999999</v>
@@ -17106,7 +17100,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B107" s="36">
         <v>0.681477</v>
@@ -17117,7 +17111,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B108" s="36">
         <v>0.68060299999999996</v>
@@ -17128,7 +17122,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B109" s="36">
         <v>0.661578</v>
@@ -17139,7 +17133,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B110" s="36">
         <v>0.601518</v>
@@ -17150,7 +17144,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B111" s="36">
         <v>0.37689299999999998</v>
@@ -17161,7 +17155,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B112" s="36">
         <v>0.35750900000000002</v>
@@ -17172,7 +17166,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B113" s="36">
         <v>0.509494</v>
@@ -17183,7 +17177,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B114" s="36">
         <v>0.66580300000000003</v>
@@ -17194,7 +17188,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B115" s="36">
         <v>0.67495899999999998</v>
@@ -17205,7 +17199,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B116" s="36">
         <v>0.67638600000000004</v>
@@ -17216,7 +17210,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B117" s="36">
         <v>0.676203</v>
@@ -17227,7 +17221,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B118" s="36">
         <v>0.66676800000000003</v>
@@ -17238,7 +17232,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B119" s="36">
         <v>0.59480999999999995</v>
@@ -17249,7 +17243,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B120" s="36">
         <v>0.380911</v>
@@ -17260,7 +17254,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B121" s="36">
         <v>0.34852899999999998</v>
@@ -17271,7 +17265,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B122" s="36">
         <v>0.48858299999999999</v>
@@ -17282,7 +17276,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B123" s="36">
         <v>0.58187100000000003</v>
@@ -17293,7 +17287,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B124" s="36">
         <v>0.59485399999999999</v>
@@ -17304,7 +17298,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B125" s="36">
         <v>0.624977</v>
@@ -17315,7 +17309,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B126" s="36">
         <v>0.61951199999999995</v>
@@ -17326,7 +17320,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B127" s="36">
         <v>0.59191199999999999</v>
@@ -17337,7 +17331,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B128" s="36">
         <v>0.5706</v>
@@ -17348,7 +17342,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B129" s="36">
         <v>0.36505100000000001</v>
@@ -17384,86 +17378,86 @@
       <c r="A1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="80" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
     </row>
     <row r="2" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64" t="s">
+      <c r="T2" s="67"/>
+      <c r="U2" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64" t="s">
+      <c r="V2" s="67"/>
+      <c r="W2" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64" t="s">
-        <v>234</v>
-      </c>
-      <c r="X2" s="64"/>
+      <c r="X2" s="67"/>
     </row>
     <row r="3" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="67" t="s">
         <v>203</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -17473,7 +17467,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>28</v>
@@ -17488,60 +17482,60 @@
         <v>46</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>46</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>46</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>46</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>46</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="T3" s="8" t="s">
         <v>46</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>46</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="X3" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="39">
@@ -17573,9 +17567,9 @@
       <c r="X4" s="39"/>
     </row>
     <row r="5" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="39">
         <v>10</v>
       </c>
@@ -17605,9 +17599,9 @@
       <c r="X5" s="39"/>
     </row>
     <row r="6" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="39">
         <v>10</v>
       </c>
@@ -17637,9 +17631,9 @@
       <c r="X6" s="39"/>
     </row>
     <row r="7" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="39">
         <v>10</v>
       </c>
@@ -17669,9 +17663,9 @@
       <c r="X7" s="39"/>
     </row>
     <row r="8" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="39">
         <v>10</v>
       </c>
@@ -17701,9 +17695,9 @@
       <c r="X8" s="39"/>
     </row>
     <row r="9" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="39">
         <v>10</v>
       </c>
@@ -17733,9 +17727,9 @@
       <c r="X9" s="39"/>
     </row>
     <row r="10" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="39">
         <v>10</v>
       </c>
@@ -17765,9 +17759,9 @@
       <c r="X10" s="39"/>
     </row>
     <row r="11" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="39">
         <v>10</v>
       </c>
@@ -17797,9 +17791,9 @@
       <c r="X11" s="39"/>
     </row>
     <row r="12" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="39">
         <v>10</v>
       </c>
@@ -17829,9 +17823,9 @@
       <c r="X12" s="39"/>
     </row>
     <row r="13" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="39">
         <v>10</v>
       </c>
@@ -17861,9 +17855,9 @@
       <c r="X13" s="39"/>
     </row>
     <row r="14" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="39">
         <v>10</v>
       </c>
@@ -17893,11 +17887,11 @@
       <c r="X14" s="39"/>
     </row>
     <row r="15" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="B15" s="72" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="69" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="40">
@@ -17929,9 +17923,9 @@
       <c r="X15" s="40"/>
     </row>
     <row r="16" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="40">
         <v>10</v>
       </c>
@@ -17961,9 +17955,9 @@
       <c r="X16" s="40"/>
     </row>
     <row r="17" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="40">
         <v>10</v>
       </c>
@@ -17993,9 +17987,9 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="40">
         <v>10</v>
       </c>
@@ -18025,9 +18019,9 @@
       <c r="X18" s="40"/>
     </row>
     <row r="19" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="40">
         <v>10</v>
       </c>
@@ -18057,9 +18051,9 @@
       <c r="X19" s="40"/>
     </row>
     <row r="20" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="40">
         <v>10</v>
       </c>
@@ -18089,9 +18083,9 @@
       <c r="X20" s="40"/>
     </row>
     <row r="21" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="40">
         <v>10</v>
       </c>
@@ -18121,9 +18115,9 @@
       <c r="X21" s="40"/>
     </row>
     <row r="22" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="40">
         <v>10</v>
       </c>
@@ -18153,9 +18147,9 @@
       <c r="X22" s="40"/>
     </row>
     <row r="23" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="40">
         <v>10</v>
       </c>
@@ -18185,9 +18179,9 @@
       <c r="X23" s="40"/>
     </row>
     <row r="24" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="40">
         <v>10</v>
       </c>
@@ -18217,9 +18211,9 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="40">
         <v>10</v>
       </c>
@@ -18249,11 +18243,11 @@
       <c r="X25" s="40"/>
     </row>
     <row r="26" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
-      <c r="B26" s="73" t="s">
+      <c r="A26" s="67"/>
+      <c r="B26" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="70" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="41">
@@ -18285,9 +18279,9 @@
       <c r="X26" s="41"/>
     </row>
     <row r="27" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="41">
         <v>10</v>
       </c>
@@ -18317,9 +18311,9 @@
       <c r="X27" s="41"/>
     </row>
     <row r="28" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="41">
         <v>10</v>
       </c>
@@ -18349,9 +18343,9 @@
       <c r="X28" s="41"/>
     </row>
     <row r="29" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="41">
         <v>10</v>
       </c>
@@ -18381,9 +18375,9 @@
       <c r="X29" s="41"/>
     </row>
     <row r="30" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="41">
         <v>10</v>
       </c>
@@ -18413,9 +18407,9 @@
       <c r="X30" s="41"/>
     </row>
     <row r="31" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="41">
         <v>10</v>
       </c>
@@ -18445,9 +18439,9 @@
       <c r="X31" s="41"/>
     </row>
     <row r="32" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="41">
         <v>10</v>
       </c>
@@ -18477,9 +18471,9 @@
       <c r="X32" s="41"/>
     </row>
     <row r="33" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="41">
         <v>10</v>
       </c>
@@ -18509,9 +18503,9 @@
       <c r="X33" s="41"/>
     </row>
     <row r="34" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="41">
         <v>10</v>
       </c>
@@ -18541,9 +18535,9 @@
       <c r="X34" s="41"/>
     </row>
     <row r="35" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="41">
         <v>10</v>
       </c>
@@ -18573,9 +18567,9 @@
       <c r="X35" s="41"/>
     </row>
     <row r="36" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="41">
         <v>10</v>
       </c>
@@ -18605,11 +18599,11 @@
       <c r="X36" s="41"/>
     </row>
     <row r="37" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
-      <c r="B37" s="74" t="s">
+      <c r="A37" s="67"/>
+      <c r="B37" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="71" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="42">
@@ -18641,9 +18635,9 @@
       <c r="X37" s="42"/>
     </row>
     <row r="38" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="64"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="42">
         <v>10</v>
       </c>
@@ -18673,9 +18667,9 @@
       <c r="X38" s="42"/>
     </row>
     <row r="39" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="64"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="42">
         <v>10</v>
       </c>
@@ -18705,9 +18699,9 @@
       <c r="X39" s="42"/>
     </row>
     <row r="40" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="42">
         <v>10</v>
       </c>
@@ -18737,9 +18731,9 @@
       <c r="X40" s="42"/>
     </row>
     <row r="41" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="64"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
       <c r="D41" s="42">
         <v>10</v>
       </c>
@@ -18769,9 +18763,9 @@
       <c r="X41" s="42"/>
     </row>
     <row r="42" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="64"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
       <c r="D42" s="42">
         <v>10</v>
       </c>
@@ -18801,9 +18795,9 @@
       <c r="X42" s="42"/>
     </row>
     <row r="43" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="64"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="42">
         <v>10</v>
       </c>
@@ -18833,9 +18827,9 @@
       <c r="X43" s="42"/>
     </row>
     <row r="44" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="64"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
       <c r="D44" s="42">
         <v>10</v>
       </c>
@@ -18865,9 +18859,9 @@
       <c r="X44" s="42"/>
     </row>
     <row r="45" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="64"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
       <c r="D45" s="42">
         <v>10</v>
       </c>
@@ -18897,9 +18891,9 @@
       <c r="X45" s="42"/>
     </row>
     <row r="46" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="64"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="42">
         <v>10</v>
       </c>
@@ -18929,9 +18923,9 @@
       <c r="X46" s="42"/>
     </row>
     <row r="47" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="64"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
       <c r="D47" s="42">
         <v>10</v>
       </c>
@@ -18965,36 +18959,36 @@
       <c r="A49" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
+      <c r="B49" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
     </row>
     <row r="50" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64" t="s">
+      <c r="C50" s="67"/>
+      <c r="D50" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64" t="s">
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="64"/>
+      <c r="H50" s="67"/>
     </row>
     <row r="51" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="67" t="s">
         <v>204</v>
       </c>
       <c r="B51" s="38" t="s">
@@ -19004,7 +18998,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E51" s="38" t="s">
         <v>28</v>
@@ -19020,11 +19014,11 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="64"/>
-      <c r="B52" s="71" t="s">
+      <c r="A52" s="67"/>
+      <c r="B52" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="39">
@@ -19044,9 +19038,9 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="64"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="39">
         <v>11</v>
       </c>
@@ -19064,9 +19058,9 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="64"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="39">
         <v>11</v>
       </c>
@@ -19084,9 +19078,9 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="64"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="39">
         <v>11</v>
       </c>
@@ -19104,9 +19098,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="64"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
       <c r="D56" s="39">
         <v>11</v>
       </c>
@@ -19124,9 +19118,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="64"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="39">
         <v>11</v>
       </c>
@@ -19144,9 +19138,9 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="64"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
       <c r="D58" s="39">
         <v>11</v>
       </c>
@@ -19164,9 +19158,9 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="64"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="39">
         <v>11</v>
       </c>
@@ -19184,9 +19178,9 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="64"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="39">
         <v>11</v>
       </c>
@@ -19204,9 +19198,9 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="64"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="39">
         <v>11</v>
       </c>
@@ -19224,9 +19218,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="64"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
       <c r="D62" s="39">
         <v>11</v>
       </c>
@@ -19244,9 +19238,9 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="64"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
+      <c r="A63" s="67"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="39">
         <v>11</v>
       </c>
@@ -19264,11 +19258,11 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="64"/>
-      <c r="B64" s="72" t="s">
+      <c r="A64" s="67"/>
+      <c r="B64" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="72" t="s">
+      <c r="C64" s="69" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="40">
@@ -19288,9 +19282,9 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="64"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
       <c r="D65" s="40">
         <v>11</v>
       </c>
@@ -19308,9 +19302,9 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="64"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
       <c r="D66" s="40">
         <v>11</v>
       </c>
@@ -19328,9 +19322,9 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="64"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
       <c r="D67" s="40">
         <v>11</v>
       </c>
@@ -19348,9 +19342,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="64"/>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
       <c r="D68" s="40">
         <v>11</v>
       </c>
@@ -19368,9 +19362,9 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="64"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
+      <c r="A69" s="67"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
       <c r="D69" s="40">
         <v>11</v>
       </c>
@@ -19388,9 +19382,9 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="64"/>
-      <c r="B70" s="72"/>
-      <c r="C70" s="72"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
       <c r="D70" s="40">
         <v>11</v>
       </c>
@@ -19408,9 +19402,9 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="64"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
       <c r="D71" s="40">
         <v>11</v>
       </c>
@@ -19428,9 +19422,9 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="64"/>
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
       <c r="D72" s="40">
         <v>11</v>
       </c>
@@ -19448,9 +19442,9 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="64"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
+      <c r="A73" s="67"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
       <c r="D73" s="40">
         <v>11</v>
       </c>
@@ -19468,9 +19462,9 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="64"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
       <c r="D74" s="40">
         <v>11</v>
       </c>
@@ -19488,9 +19482,9 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="64"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
       <c r="D75" s="40">
         <v>11</v>
       </c>
@@ -19508,11 +19502,11 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="64"/>
-      <c r="B76" s="73" t="s">
+      <c r="A76" s="67"/>
+      <c r="B76" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="73" t="s">
+      <c r="C76" s="70" t="s">
         <v>41</v>
       </c>
       <c r="D76" s="41">
@@ -19532,9 +19526,9 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="64"/>
-      <c r="B77" s="73"/>
-      <c r="C77" s="73"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="70"/>
       <c r="D77" s="41">
         <v>11</v>
       </c>
@@ -19552,9 +19546,9 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="64"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="73"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="70"/>
       <c r="D78" s="41">
         <v>11</v>
       </c>
@@ -19572,9 +19566,9 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="64"/>
-      <c r="B79" s="73"/>
-      <c r="C79" s="73"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="70"/>
       <c r="D79" s="41">
         <v>11</v>
       </c>
@@ -19592,9 +19586,9 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="64"/>
-      <c r="B80" s="73"/>
-      <c r="C80" s="73"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="70"/>
       <c r="D80" s="41">
         <v>11</v>
       </c>
@@ -19612,9 +19606,9 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="64"/>
-      <c r="B81" s="73"/>
-      <c r="C81" s="73"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="70"/>
       <c r="D81" s="41">
         <v>11</v>
       </c>
@@ -19632,9 +19626,9 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="64"/>
-      <c r="B82" s="73"/>
-      <c r="C82" s="73"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
       <c r="D82" s="41">
         <v>11</v>
       </c>
@@ -19652,9 +19646,9 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="64"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="70"/>
       <c r="D83" s="41">
         <v>11</v>
       </c>
@@ -19672,9 +19666,9 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="64"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="73"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
       <c r="D84" s="41">
         <v>11</v>
       </c>
@@ -19692,9 +19686,9 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="64"/>
-      <c r="B85" s="73"/>
-      <c r="C85" s="73"/>
+      <c r="A85" s="67"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
       <c r="D85" s="41">
         <v>11</v>
       </c>
@@ -19712,9 +19706,9 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="64"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="73"/>
+      <c r="A86" s="67"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
       <c r="D86" s="41">
         <v>11</v>
       </c>
@@ -19732,9 +19726,9 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="64"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="73"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
       <c r="D87" s="41">
         <v>11</v>
       </c>
@@ -19752,11 +19746,11 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="64"/>
-      <c r="B88" s="74" t="s">
+      <c r="A88" s="67"/>
+      <c r="B88" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="74" t="s">
+      <c r="C88" s="71" t="s">
         <v>43</v>
       </c>
       <c r="D88" s="42">
@@ -19776,9 +19770,9 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="64"/>
-      <c r="B89" s="74"/>
-      <c r="C89" s="74"/>
+      <c r="A89" s="67"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="71"/>
       <c r="D89" s="42">
         <v>11</v>
       </c>
@@ -19796,9 +19790,9 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="64"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="74"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
       <c r="D90" s="42">
         <v>11</v>
       </c>
@@ -19816,9 +19810,9 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="64"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="74"/>
+      <c r="A91" s="67"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="71"/>
       <c r="D91" s="42">
         <v>11</v>
       </c>
@@ -19836,9 +19830,9 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="64"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="74"/>
+      <c r="A92" s="67"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
       <c r="D92" s="42">
         <v>11</v>
       </c>
@@ -19856,9 +19850,9 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="64"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="74"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="71"/>
+      <c r="C93" s="71"/>
       <c r="D93" s="42">
         <v>11</v>
       </c>
@@ -19876,9 +19870,9 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="64"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="74"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="71"/>
       <c r="D94" s="42">
         <v>11</v>
       </c>
@@ -19896,9 +19890,9 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="64"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="74"/>
+      <c r="A95" s="67"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="71"/>
       <c r="D95" s="42">
         <v>11</v>
       </c>
@@ -19916,9 +19910,9 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="64"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="74"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="71"/>
       <c r="D96" s="42">
         <v>11</v>
       </c>
@@ -19936,9 +19930,9 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="64"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="74"/>
+      <c r="A97" s="67"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="71"/>
       <c r="D97" s="42">
         <v>11</v>
       </c>
@@ -19956,9 +19950,9 @@
       </c>
     </row>
     <row r="98" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="64"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="74"/>
+      <c r="A98" s="67"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="71"/>
       <c r="D98" s="42">
         <v>11</v>
       </c>
@@ -19976,9 +19970,9 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="64"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="74"/>
+      <c r="A99" s="67"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
       <c r="D99" s="42">
         <v>11</v>
       </c>
@@ -20000,36 +19994,36 @@
       <c r="A101" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B101" s="79" t="s">
-        <v>213</v>
-      </c>
-      <c r="C101" s="79"/>
-      <c r="D101" s="79"/>
-      <c r="E101" s="79"/>
-      <c r="F101" s="79"/>
-      <c r="G101" s="79"/>
-      <c r="H101" s="79"/>
+      <c r="B101" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="81"/>
+      <c r="D101" s="81"/>
+      <c r="E101" s="81"/>
+      <c r="F101" s="81"/>
+      <c r="G101" s="81"/>
+      <c r="H101" s="81"/>
     </row>
     <row r="102" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="64" t="s">
+      <c r="B102" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C102" s="64"/>
-      <c r="D102" s="64" t="s">
+      <c r="C102" s="67"/>
+      <c r="D102" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="64" t="s">
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="H102" s="64"/>
+      <c r="H102" s="67"/>
     </row>
     <row r="103" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="64" t="s">
+      <c r="A103" s="67" t="s">
         <v>205</v>
       </c>
       <c r="B103" s="38" t="s">
@@ -20039,7 +20033,7 @@
         <v>17</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E103" s="38" t="s">
         <v>28</v>
@@ -20055,11 +20049,11 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="64"/>
-      <c r="B104" s="71" t="s">
+      <c r="A104" s="67"/>
+      <c r="B104" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C104" s="71" t="s">
+      <c r="C104" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="39">
@@ -20079,9 +20073,9 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="64"/>
-      <c r="B105" s="71"/>
-      <c r="C105" s="71"/>
+      <c r="A105" s="67"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="68"/>
       <c r="D105" s="39">
         <v>8</v>
       </c>
@@ -20099,9 +20093,9 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="64"/>
-      <c r="B106" s="71"/>
-      <c r="C106" s="71"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="68"/>
       <c r="D106" s="39">
         <v>8</v>
       </c>
@@ -20119,9 +20113,9 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="64"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="71"/>
+      <c r="A107" s="67"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="68"/>
       <c r="D107" s="39">
         <v>8</v>
       </c>
@@ -20139,9 +20133,9 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="64"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="71"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="68"/>
       <c r="D108" s="39">
         <v>8</v>
       </c>
@@ -20159,9 +20153,9 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="64"/>
-      <c r="B109" s="71"/>
-      <c r="C109" s="71"/>
+      <c r="A109" s="67"/>
+      <c r="B109" s="68"/>
+      <c r="C109" s="68"/>
       <c r="D109" s="39">
         <v>8</v>
       </c>
@@ -20179,9 +20173,9 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="64"/>
-      <c r="B110" s="71"/>
-      <c r="C110" s="71"/>
+      <c r="A110" s="67"/>
+      <c r="B110" s="68"/>
+      <c r="C110" s="68"/>
       <c r="D110" s="39">
         <v>8</v>
       </c>
@@ -20199,9 +20193,9 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="64"/>
-      <c r="B111" s="71"/>
-      <c r="C111" s="71"/>
+      <c r="A111" s="67"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="68"/>
       <c r="D111" s="39">
         <v>8</v>
       </c>
@@ -20219,9 +20213,9 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="64"/>
-      <c r="B112" s="71"/>
-      <c r="C112" s="71"/>
+      <c r="A112" s="67"/>
+      <c r="B112" s="68"/>
+      <c r="C112" s="68"/>
       <c r="D112" s="39">
         <v>8</v>
       </c>
@@ -20239,11 +20233,11 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="64"/>
-      <c r="B113" s="72" t="s">
+      <c r="A113" s="67"/>
+      <c r="B113" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C113" s="72" t="s">
+      <c r="C113" s="69" t="s">
         <v>39</v>
       </c>
       <c r="D113" s="40">
@@ -20263,9 +20257,9 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="64"/>
-      <c r="B114" s="72"/>
-      <c r="C114" s="72"/>
+      <c r="A114" s="67"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="69"/>
       <c r="D114" s="40">
         <v>8</v>
       </c>
@@ -20283,9 +20277,9 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="64"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="72"/>
+      <c r="A115" s="67"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="69"/>
       <c r="D115" s="40">
         <v>8</v>
       </c>
@@ -20303,9 +20297,9 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="64"/>
-      <c r="B116" s="72"/>
-      <c r="C116" s="72"/>
+      <c r="A116" s="67"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="69"/>
       <c r="D116" s="40">
         <v>8</v>
       </c>
@@ -20323,9 +20317,9 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="64"/>
-      <c r="B117" s="72"/>
-      <c r="C117" s="72"/>
+      <c r="A117" s="67"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="69"/>
       <c r="D117" s="40">
         <v>8</v>
       </c>
@@ -20343,9 +20337,9 @@
       </c>
     </row>
     <row r="118" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="64"/>
-      <c r="B118" s="72"/>
-      <c r="C118" s="72"/>
+      <c r="A118" s="67"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="69"/>
       <c r="D118" s="40">
         <v>8</v>
       </c>
@@ -20363,9 +20357,9 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="64"/>
-      <c r="B119" s="72"/>
-      <c r="C119" s="72"/>
+      <c r="A119" s="67"/>
+      <c r="B119" s="69"/>
+      <c r="C119" s="69"/>
       <c r="D119" s="40">
         <v>8</v>
       </c>
@@ -20383,9 +20377,9 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="64"/>
-      <c r="B120" s="72"/>
-      <c r="C120" s="72"/>
+      <c r="A120" s="67"/>
+      <c r="B120" s="69"/>
+      <c r="C120" s="69"/>
       <c r="D120" s="40">
         <v>8</v>
       </c>
@@ -20403,9 +20397,9 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="64"/>
-      <c r="B121" s="72"/>
-      <c r="C121" s="72"/>
+      <c r="A121" s="67"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="69"/>
       <c r="D121" s="40">
         <v>8</v>
       </c>
@@ -20423,11 +20417,11 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="64"/>
-      <c r="B122" s="73" t="s">
+      <c r="A122" s="67"/>
+      <c r="B122" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C122" s="73" t="s">
+      <c r="C122" s="70" t="s">
         <v>41</v>
       </c>
       <c r="D122" s="41">
@@ -20447,9 +20441,9 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="64"/>
-      <c r="B123" s="73"/>
-      <c r="C123" s="73"/>
+      <c r="A123" s="67"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
       <c r="D123" s="41">
         <v>8</v>
       </c>
@@ -20467,9 +20461,9 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="64"/>
-      <c r="B124" s="73"/>
-      <c r="C124" s="73"/>
+      <c r="A124" s="67"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
       <c r="D124" s="41">
         <v>8</v>
       </c>
@@ -20487,9 +20481,9 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="64"/>
-      <c r="B125" s="73"/>
-      <c r="C125" s="73"/>
+      <c r="A125" s="67"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="70"/>
       <c r="D125" s="41">
         <v>8</v>
       </c>
@@ -20507,9 +20501,9 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="64"/>
-      <c r="B126" s="73"/>
-      <c r="C126" s="73"/>
+      <c r="A126" s="67"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="70"/>
       <c r="D126" s="41">
         <v>8</v>
       </c>
@@ -20527,9 +20521,9 @@
       </c>
     </row>
     <row r="127" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="64"/>
-      <c r="B127" s="73"/>
-      <c r="C127" s="73"/>
+      <c r="A127" s="67"/>
+      <c r="B127" s="70"/>
+      <c r="C127" s="70"/>
       <c r="D127" s="41">
         <v>8</v>
       </c>
@@ -20547,9 +20541,9 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="64"/>
-      <c r="B128" s="73"/>
-      <c r="C128" s="73"/>
+      <c r="A128" s="67"/>
+      <c r="B128" s="70"/>
+      <c r="C128" s="70"/>
       <c r="D128" s="41">
         <v>8</v>
       </c>
@@ -20567,9 +20561,9 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="64"/>
-      <c r="B129" s="73"/>
-      <c r="C129" s="73"/>
+      <c r="A129" s="67"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="70"/>
       <c r="D129" s="41">
         <v>8</v>
       </c>
@@ -20587,9 +20581,9 @@
       </c>
     </row>
     <row r="130" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="64"/>
-      <c r="B130" s="73"/>
-      <c r="C130" s="73"/>
+      <c r="A130" s="67"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
       <c r="D130" s="41">
         <v>8</v>
       </c>
@@ -20607,11 +20601,11 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="64"/>
-      <c r="B131" s="74" t="s">
+      <c r="A131" s="67"/>
+      <c r="B131" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C131" s="74" t="s">
+      <c r="C131" s="71" t="s">
         <v>43</v>
       </c>
       <c r="D131" s="42">
@@ -20631,9 +20625,9 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="64"/>
-      <c r="B132" s="74"/>
-      <c r="C132" s="74"/>
+      <c r="A132" s="67"/>
+      <c r="B132" s="71"/>
+      <c r="C132" s="71"/>
       <c r="D132" s="42">
         <v>8</v>
       </c>
@@ -20651,9 +20645,9 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="64"/>
-      <c r="B133" s="74"/>
-      <c r="C133" s="74"/>
+      <c r="A133" s="67"/>
+      <c r="B133" s="71"/>
+      <c r="C133" s="71"/>
       <c r="D133" s="42">
         <v>8</v>
       </c>
@@ -20671,9 +20665,9 @@
       </c>
     </row>
     <row r="134" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="64"/>
-      <c r="B134" s="74"/>
-      <c r="C134" s="74"/>
+      <c r="A134" s="67"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="71"/>
       <c r="D134" s="42">
         <v>8</v>
       </c>
@@ -20691,9 +20685,9 @@
       </c>
     </row>
     <row r="135" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="64"/>
-      <c r="B135" s="74"/>
-      <c r="C135" s="74"/>
+      <c r="A135" s="67"/>
+      <c r="B135" s="71"/>
+      <c r="C135" s="71"/>
       <c r="D135" s="42">
         <v>8</v>
       </c>
@@ -20711,9 +20705,9 @@
       </c>
     </row>
     <row r="136" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="64"/>
-      <c r="B136" s="74"/>
-      <c r="C136" s="74"/>
+      <c r="A136" s="67"/>
+      <c r="B136" s="71"/>
+      <c r="C136" s="71"/>
       <c r="D136" s="42">
         <v>8</v>
       </c>
@@ -20731,9 +20725,9 @@
       </c>
     </row>
     <row r="137" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="64"/>
-      <c r="B137" s="74"/>
-      <c r="C137" s="74"/>
+      <c r="A137" s="67"/>
+      <c r="B137" s="71"/>
+      <c r="C137" s="71"/>
       <c r="D137" s="42">
         <v>8</v>
       </c>
@@ -20751,9 +20745,9 @@
       </c>
     </row>
     <row r="138" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="64"/>
-      <c r="B138" s="74"/>
-      <c r="C138" s="74"/>
+      <c r="A138" s="67"/>
+      <c r="B138" s="71"/>
+      <c r="C138" s="71"/>
       <c r="D138" s="42">
         <v>8</v>
       </c>
@@ -20771,9 +20765,9 @@
       </c>
     </row>
     <row r="139" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="64"/>
-      <c r="B139" s="74"/>
-      <c r="C139" s="74"/>
+      <c r="A139" s="67"/>
+      <c r="B139" s="71"/>
+      <c r="C139" s="71"/>
       <c r="D139" s="42">
         <v>8</v>
       </c>
@@ -20792,6 +20786,41 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A3:A47"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="C4:C14"/>
+    <mergeCell ref="B15:B25"/>
+    <mergeCell ref="C15:C25"/>
+    <mergeCell ref="B26:B36"/>
+    <mergeCell ref="A51:A99"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="C52:C63"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="C64:C75"/>
+    <mergeCell ref="B76:B87"/>
+    <mergeCell ref="C76:C87"/>
+    <mergeCell ref="B88:B99"/>
+    <mergeCell ref="C88:C99"/>
+    <mergeCell ref="A103:A139"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="C104:C112"/>
+    <mergeCell ref="B113:B121"/>
+    <mergeCell ref="C113:C121"/>
+    <mergeCell ref="B122:B130"/>
+    <mergeCell ref="C122:C130"/>
+    <mergeCell ref="B131:B139"/>
+    <mergeCell ref="C131:C139"/>
+    <mergeCell ref="B101:H101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="C26:C36"/>
+    <mergeCell ref="B37:B47"/>
+    <mergeCell ref="C37:C47"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:X1"/>
     <mergeCell ref="O2:P2"/>
@@ -20805,41 +20834,6 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B101:H101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="C26:C36"/>
-    <mergeCell ref="B37:B47"/>
-    <mergeCell ref="C37:C47"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="A103:A139"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="C104:C112"/>
-    <mergeCell ref="B113:B121"/>
-    <mergeCell ref="C113:C121"/>
-    <mergeCell ref="B122:B130"/>
-    <mergeCell ref="C122:C130"/>
-    <mergeCell ref="B131:B139"/>
-    <mergeCell ref="C131:C139"/>
-    <mergeCell ref="A51:A99"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="C52:C63"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="C64:C75"/>
-    <mergeCell ref="B76:B87"/>
-    <mergeCell ref="C76:C87"/>
-    <mergeCell ref="B88:B99"/>
-    <mergeCell ref="C88:C99"/>
-    <mergeCell ref="A3:A47"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="C4:C14"/>
-    <mergeCell ref="B15:B25"/>
-    <mergeCell ref="C15:C25"/>
-    <mergeCell ref="B26:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20858,58 +20852,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -23629,21 +23623,21 @@
       <c r="A1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="65" t="s">
+      <c r="B1" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -23658,27 +23652,27 @@
       <c r="A2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64" t="s">
-        <v>260</v>
-      </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64" t="s">
-        <v>261</v>
-      </c>
-      <c r="L2" s="64"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="L2" s="67"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
@@ -23690,7 +23684,7 @@
       <c r="U2"/>
     </row>
     <row r="3" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="67" t="s">
         <v>203</v>
       </c>
       <c r="B3" s="50" t="s">
@@ -23700,7 +23694,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E3" s="50" t="s">
         <v>28</v>
@@ -23737,11 +23731,11 @@
       <c r="U3"/>
     </row>
     <row r="4" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="51">
@@ -23782,9 +23776,9 @@
       <c r="U4"/>
     </row>
     <row r="5" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="51">
         <v>10</v>
       </c>
@@ -23823,9 +23817,9 @@
       <c r="U5"/>
     </row>
     <row r="6" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="51">
         <v>10</v>
       </c>
@@ -23864,9 +23858,9 @@
       <c r="U6"/>
     </row>
     <row r="7" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="51">
         <v>10</v>
       </c>
@@ -23905,9 +23899,9 @@
       <c r="U7"/>
     </row>
     <row r="8" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="51">
         <v>10</v>
       </c>
@@ -23946,9 +23940,9 @@
       <c r="U8"/>
     </row>
     <row r="9" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="51">
         <v>10</v>
       </c>
@@ -23987,9 +23981,9 @@
       <c r="U9"/>
     </row>
     <row r="10" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="51">
         <v>10</v>
       </c>
@@ -24028,9 +24022,9 @@
       <c r="U10"/>
     </row>
     <row r="11" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="51">
         <v>10</v>
       </c>
@@ -24069,9 +24063,9 @@
       <c r="U11"/>
     </row>
     <row r="12" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="51">
         <v>10</v>
       </c>
@@ -24110,9 +24104,9 @@
       <c r="U12"/>
     </row>
     <row r="13" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="51">
         <v>10</v>
       </c>
@@ -24151,9 +24145,9 @@
       <c r="U13"/>
     </row>
     <row r="14" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="51">
         <v>10</v>
       </c>
@@ -24192,11 +24186,11 @@
       <c r="U14"/>
     </row>
     <row r="15" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="B15" s="72" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="69" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="52">
@@ -24237,9 +24231,9 @@
       <c r="U15"/>
     </row>
     <row r="16" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="52">
         <v>10</v>
       </c>
@@ -24278,9 +24272,9 @@
       <c r="U16"/>
     </row>
     <row r="17" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="52">
         <v>10</v>
       </c>
@@ -24319,9 +24313,9 @@
       <c r="U17"/>
     </row>
     <row r="18" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="52">
         <v>10</v>
       </c>
@@ -24360,9 +24354,9 @@
       <c r="U18"/>
     </row>
     <row r="19" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="52">
         <v>10</v>
       </c>
@@ -24401,9 +24395,9 @@
       <c r="U19"/>
     </row>
     <row r="20" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="52">
         <v>10</v>
       </c>
@@ -24442,9 +24436,9 @@
       <c r="U20"/>
     </row>
     <row r="21" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="52">
         <v>10</v>
       </c>
@@ -24483,9 +24477,9 @@
       <c r="U21"/>
     </row>
     <row r="22" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="52">
         <v>10</v>
       </c>
@@ -24524,9 +24518,9 @@
       <c r="U22"/>
     </row>
     <row r="23" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="52">
         <v>10</v>
       </c>
@@ -24565,9 +24559,9 @@
       <c r="U23"/>
     </row>
     <row r="24" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="52">
         <v>10</v>
       </c>
@@ -24606,9 +24600,9 @@
       <c r="U24"/>
     </row>
     <row r="25" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="52">
         <v>10</v>
       </c>
@@ -24647,11 +24641,11 @@
       <c r="U25"/>
     </row>
     <row r="26" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
-      <c r="B26" s="73" t="s">
+      <c r="A26" s="67"/>
+      <c r="B26" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="70" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="53">
@@ -24692,9 +24686,9 @@
       <c r="U26"/>
     </row>
     <row r="27" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="53">
         <v>10</v>
       </c>
@@ -24733,9 +24727,9 @@
       <c r="U27"/>
     </row>
     <row r="28" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="53">
         <v>10</v>
       </c>
@@ -24774,9 +24768,9 @@
       <c r="U28"/>
     </row>
     <row r="29" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="53">
         <v>10</v>
       </c>
@@ -24815,9 +24809,9 @@
       <c r="U29"/>
     </row>
     <row r="30" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="53">
         <v>10</v>
       </c>
@@ -24856,9 +24850,9 @@
       <c r="U30"/>
     </row>
     <row r="31" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="53">
         <v>10</v>
       </c>
@@ -24897,9 +24891,9 @@
       <c r="U31"/>
     </row>
     <row r="32" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="53">
         <v>10</v>
       </c>
@@ -24929,9 +24923,9 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="53">
         <v>10</v>
       </c>
@@ -24961,9 +24955,9 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="53">
         <v>10</v>
       </c>
@@ -24993,9 +24987,9 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="53">
         <v>10</v>
       </c>
@@ -25025,9 +25019,9 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="53">
         <v>10</v>
       </c>
@@ -25057,11 +25051,11 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
-      <c r="B37" s="74" t="s">
+      <c r="A37" s="67"/>
+      <c r="B37" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="71" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="54">
@@ -25093,9 +25087,9 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="64"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="54">
         <v>10</v>
       </c>
@@ -25125,9 +25119,9 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="64"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="54">
         <v>10</v>
       </c>
@@ -25157,9 +25151,9 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="54">
         <v>10</v>
       </c>
@@ -25189,9 +25183,9 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="64"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
       <c r="D41" s="54">
         <v>10</v>
       </c>
@@ -25221,9 +25215,9 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="64"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
       <c r="D42" s="54">
         <v>10</v>
       </c>
@@ -25253,9 +25247,9 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="64"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="54">
         <v>10</v>
       </c>
@@ -25285,9 +25279,9 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="64"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
       <c r="D44" s="54">
         <v>10</v>
       </c>
@@ -25317,9 +25311,9 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="64"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
       <c r="D45" s="54">
         <v>10</v>
       </c>
@@ -25349,9 +25343,9 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="64"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="54">
         <v>10</v>
       </c>
@@ -25381,9 +25375,9 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="64"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
       <c r="D47" s="54">
         <v>10</v>
       </c>
@@ -25417,50 +25411,50 @@
       <c r="A49" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="65" t="s">
+      <c r="B49" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="67"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="74"/>
     </row>
     <row r="50" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64" t="s">
+      <c r="C50" s="67"/>
+      <c r="D50" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64" t="s">
-        <v>260</v>
-      </c>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64" t="s">
-        <v>261</v>
-      </c>
-      <c r="L50" s="64"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="L50" s="67"/>
     </row>
     <row r="51" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="67" t="s">
         <v>204</v>
       </c>
       <c r="B51" s="50" t="s">
@@ -25470,7 +25464,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>28</v>
@@ -25498,11 +25492,11 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="64"/>
-      <c r="B52" s="71" t="s">
+      <c r="A52" s="67"/>
+      <c r="B52" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="51">
@@ -25534,9 +25528,9 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="64"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="51">
         <v>11</v>
       </c>
@@ -25566,9 +25560,9 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="64"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="51">
         <v>11</v>
       </c>
@@ -25598,9 +25592,9 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="64"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="51">
         <v>11</v>
       </c>
@@ -25630,9 +25624,9 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="64"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
       <c r="D56" s="51">
         <v>11</v>
       </c>
@@ -25662,9 +25656,9 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="64"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="51">
         <v>11</v>
       </c>
@@ -25694,9 +25688,9 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="64"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
       <c r="D58" s="51">
         <v>11</v>
       </c>
@@ -25726,9 +25720,9 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="64"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="51">
         <v>11</v>
       </c>
@@ -25758,9 +25752,9 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="64"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="51">
         <v>11</v>
       </c>
@@ -25790,9 +25784,9 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="64"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="51">
         <v>11</v>
       </c>
@@ -25822,9 +25816,9 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="64"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
       <c r="D62" s="51">
         <v>11</v>
       </c>
@@ -25854,9 +25848,9 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="64"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
+      <c r="A63" s="67"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="51">
         <v>11</v>
       </c>
@@ -25886,11 +25880,11 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="64"/>
-      <c r="B64" s="72" t="s">
+      <c r="A64" s="67"/>
+      <c r="B64" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="72" t="s">
+      <c r="C64" s="69" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="52">
@@ -25922,9 +25916,9 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="64"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
       <c r="D65" s="52">
         <v>11</v>
       </c>
@@ -25954,9 +25948,9 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="64"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
       <c r="D66" s="52">
         <v>11</v>
       </c>
@@ -25986,9 +25980,9 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="64"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
       <c r="D67" s="52">
         <v>11</v>
       </c>
@@ -26018,9 +26012,9 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="64"/>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
       <c r="D68" s="52">
         <v>11</v>
       </c>
@@ -26050,9 +26044,9 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="64"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
+      <c r="A69" s="67"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
       <c r="D69" s="52">
         <v>11</v>
       </c>
@@ -26082,9 +26076,9 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="64"/>
-      <c r="B70" s="72"/>
-      <c r="C70" s="72"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
       <c r="D70" s="52">
         <v>11</v>
       </c>
@@ -26114,9 +26108,9 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="64"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
       <c r="D71" s="52">
         <v>11</v>
       </c>
@@ -26146,9 +26140,9 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="64"/>
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
       <c r="D72" s="52">
         <v>11</v>
       </c>
@@ -26178,9 +26172,9 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="64"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
+      <c r="A73" s="67"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
       <c r="D73" s="52">
         <v>11</v>
       </c>
@@ -26210,9 +26204,9 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="64"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
       <c r="D74" s="52">
         <v>11</v>
       </c>
@@ -26242,9 +26236,9 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="64"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
       <c r="D75" s="52">
         <v>11</v>
       </c>
@@ -26274,11 +26268,11 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="64"/>
-      <c r="B76" s="73" t="s">
+      <c r="A76" s="67"/>
+      <c r="B76" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="73" t="s">
+      <c r="C76" s="70" t="s">
         <v>41</v>
       </c>
       <c r="D76" s="53">
@@ -26310,9 +26304,9 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="64"/>
-      <c r="B77" s="73"/>
-      <c r="C77" s="73"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="70"/>
       <c r="D77" s="53">
         <v>11</v>
       </c>
@@ -26342,9 +26336,9 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="64"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="73"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="70"/>
       <c r="D78" s="53">
         <v>11</v>
       </c>
@@ -26374,9 +26368,9 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="64"/>
-      <c r="B79" s="73"/>
-      <c r="C79" s="73"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="70"/>
       <c r="D79" s="53">
         <v>11</v>
       </c>
@@ -26406,9 +26400,9 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="64"/>
-      <c r="B80" s="73"/>
-      <c r="C80" s="73"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="70"/>
       <c r="D80" s="53">
         <v>11</v>
       </c>
@@ -26438,9 +26432,9 @@
       </c>
     </row>
     <row r="81" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="64"/>
-      <c r="B81" s="73"/>
-      <c r="C81" s="73"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="70"/>
       <c r="D81" s="53">
         <v>11</v>
       </c>
@@ -26470,9 +26464,9 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="64"/>
-      <c r="B82" s="73"/>
-      <c r="C82" s="73"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
       <c r="D82" s="53">
         <v>11</v>
       </c>
@@ -26502,9 +26496,9 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="64"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="70"/>
       <c r="D83" s="53">
         <v>11</v>
       </c>
@@ -26534,9 +26528,9 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="64"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="73"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
       <c r="D84" s="53">
         <v>11</v>
       </c>
@@ -26566,9 +26560,9 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="64"/>
-      <c r="B85" s="73"/>
-      <c r="C85" s="73"/>
+      <c r="A85" s="67"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
       <c r="D85" s="53">
         <v>11</v>
       </c>
@@ -26598,9 +26592,9 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="64"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="73"/>
+      <c r="A86" s="67"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
       <c r="D86" s="53">
         <v>11</v>
       </c>
@@ -26630,9 +26624,9 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="64"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="73"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
       <c r="D87" s="53">
         <v>11</v>
       </c>
@@ -26662,11 +26656,11 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="64"/>
-      <c r="B88" s="74" t="s">
+      <c r="A88" s="67"/>
+      <c r="B88" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="74" t="s">
+      <c r="C88" s="71" t="s">
         <v>43</v>
       </c>
       <c r="D88" s="54">
@@ -26698,9 +26692,9 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="64"/>
-      <c r="B89" s="74"/>
-      <c r="C89" s="74"/>
+      <c r="A89" s="67"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="71"/>
       <c r="D89" s="54">
         <v>11</v>
       </c>
@@ -26730,9 +26724,9 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="64"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="74"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
       <c r="D90" s="54">
         <v>11</v>
       </c>
@@ -26762,9 +26756,9 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="64"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="74"/>
+      <c r="A91" s="67"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="71"/>
       <c r="D91" s="54">
         <v>11</v>
       </c>
@@ -26794,9 +26788,9 @@
       </c>
     </row>
     <row r="92" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="64"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="74"/>
+      <c r="A92" s="67"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
       <c r="D92" s="54">
         <v>11</v>
       </c>
@@ -26826,9 +26820,9 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="64"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="74"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="71"/>
+      <c r="C93" s="71"/>
       <c r="D93" s="54">
         <v>11</v>
       </c>
@@ -26858,9 +26852,9 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="64"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="74"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="71"/>
       <c r="D94" s="54">
         <v>11</v>
       </c>
@@ -26890,9 +26884,9 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="64"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="74"/>
+      <c r="A95" s="67"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="71"/>
       <c r="D95" s="54">
         <v>11</v>
       </c>
@@ -26922,9 +26916,9 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="64"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="74"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="71"/>
       <c r="D96" s="54">
         <v>11</v>
       </c>
@@ -26954,9 +26948,9 @@
       </c>
     </row>
     <row r="97" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="64"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="74"/>
+      <c r="A97" s="67"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="71"/>
       <c r="D97" s="54">
         <v>11</v>
       </c>
@@ -26986,9 +26980,9 @@
       </c>
     </row>
     <row r="98" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="64"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="74"/>
+      <c r="A98" s="67"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="71"/>
       <c r="D98" s="54">
         <v>11</v>
       </c>
@@ -27018,9 +27012,9 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="64"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="74"/>
+      <c r="A99" s="67"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
       <c r="D99" s="54">
         <v>11</v>
       </c>
@@ -27054,50 +27048,50 @@
       <c r="A101" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B101" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="65" t="s">
+      <c r="B101" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="65"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
-      <c r="K101" s="66"/>
-      <c r="L101" s="67"/>
+      <c r="H101" s="73"/>
+      <c r="I101" s="73"/>
+      <c r="J101" s="73"/>
+      <c r="K101" s="73"/>
+      <c r="L101" s="74"/>
     </row>
     <row r="102" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="64" t="s">
+      <c r="B102" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C102" s="64"/>
-      <c r="D102" s="64" t="s">
+      <c r="C102" s="67"/>
+      <c r="D102" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="H102" s="64"/>
-      <c r="I102" s="64" t="s">
-        <v>260</v>
-      </c>
-      <c r="J102" s="64"/>
-      <c r="K102" s="64" t="s">
-        <v>261</v>
-      </c>
-      <c r="L102" s="64"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="J102" s="67"/>
+      <c r="K102" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="L102" s="67"/>
     </row>
     <row r="103" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="64" t="s">
+      <c r="A103" s="67" t="s">
         <v>205</v>
       </c>
       <c r="B103" s="50" t="s">
@@ -27107,7 +27101,7 @@
         <v>17</v>
       </c>
       <c r="D103" s="50" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E103" s="50" t="s">
         <v>28</v>
@@ -27135,11 +27129,11 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="64"/>
-      <c r="B104" s="71" t="s">
+      <c r="A104" s="67"/>
+      <c r="B104" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C104" s="71" t="s">
+      <c r="C104" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="51">
@@ -27171,9 +27165,9 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="64"/>
-      <c r="B105" s="71"/>
-      <c r="C105" s="71"/>
+      <c r="A105" s="67"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="68"/>
       <c r="D105" s="51">
         <v>8</v>
       </c>
@@ -27203,9 +27197,9 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="64"/>
-      <c r="B106" s="71"/>
-      <c r="C106" s="71"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="68"/>
       <c r="D106" s="51">
         <v>8</v>
       </c>
@@ -27235,9 +27229,9 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="64"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="71"/>
+      <c r="A107" s="67"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="68"/>
       <c r="D107" s="51">
         <v>8</v>
       </c>
@@ -27267,9 +27261,9 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="64"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="71"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="68"/>
       <c r="D108" s="51">
         <v>8</v>
       </c>
@@ -27299,9 +27293,9 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="64"/>
-      <c r="B109" s="71"/>
-      <c r="C109" s="71"/>
+      <c r="A109" s="67"/>
+      <c r="B109" s="68"/>
+      <c r="C109" s="68"/>
       <c r="D109" s="51">
         <v>8</v>
       </c>
@@ -27331,9 +27325,9 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="64"/>
-      <c r="B110" s="71"/>
-      <c r="C110" s="71"/>
+      <c r="A110" s="67"/>
+      <c r="B110" s="68"/>
+      <c r="C110" s="68"/>
       <c r="D110" s="51">
         <v>8</v>
       </c>
@@ -27363,9 +27357,9 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="64"/>
-      <c r="B111" s="71"/>
-      <c r="C111" s="71"/>
+      <c r="A111" s="67"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="68"/>
       <c r="D111" s="51">
         <v>8</v>
       </c>
@@ -27395,9 +27389,9 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="64"/>
-      <c r="B112" s="71"/>
-      <c r="C112" s="71"/>
+      <c r="A112" s="67"/>
+      <c r="B112" s="68"/>
+      <c r="C112" s="68"/>
       <c r="D112" s="51">
         <v>8</v>
       </c>
@@ -27427,11 +27421,11 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="64"/>
-      <c r="B113" s="72" t="s">
+      <c r="A113" s="67"/>
+      <c r="B113" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C113" s="72" t="s">
+      <c r="C113" s="69" t="s">
         <v>39</v>
       </c>
       <c r="D113" s="52">
@@ -27463,9 +27457,9 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="64"/>
-      <c r="B114" s="72"/>
-      <c r="C114" s="72"/>
+      <c r="A114" s="67"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="69"/>
       <c r="D114" s="52">
         <v>8</v>
       </c>
@@ -27495,9 +27489,9 @@
       </c>
     </row>
     <row r="115" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="64"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="72"/>
+      <c r="A115" s="67"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="69"/>
       <c r="D115" s="52">
         <v>8</v>
       </c>
@@ -27527,9 +27521,9 @@
       </c>
     </row>
     <row r="116" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="64"/>
-      <c r="B116" s="72"/>
-      <c r="C116" s="72"/>
+      <c r="A116" s="67"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="69"/>
       <c r="D116" s="52">
         <v>8</v>
       </c>
@@ -27559,9 +27553,9 @@
       </c>
     </row>
     <row r="117" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="64"/>
-      <c r="B117" s="72"/>
-      <c r="C117" s="72"/>
+      <c r="A117" s="67"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="69"/>
       <c r="D117" s="52">
         <v>8</v>
       </c>
@@ -27591,9 +27585,9 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="64"/>
-      <c r="B118" s="72"/>
-      <c r="C118" s="72"/>
+      <c r="A118" s="67"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="69"/>
       <c r="D118" s="52">
         <v>8</v>
       </c>
@@ -27623,9 +27617,9 @@
       </c>
     </row>
     <row r="119" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="64"/>
-      <c r="B119" s="72"/>
-      <c r="C119" s="72"/>
+      <c r="A119" s="67"/>
+      <c r="B119" s="69"/>
+      <c r="C119" s="69"/>
       <c r="D119" s="52">
         <v>8</v>
       </c>
@@ -27655,9 +27649,9 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="64"/>
-      <c r="B120" s="72"/>
-      <c r="C120" s="72"/>
+      <c r="A120" s="67"/>
+      <c r="B120" s="69"/>
+      <c r="C120" s="69"/>
       <c r="D120" s="52">
         <v>8</v>
       </c>
@@ -27687,9 +27681,9 @@
       </c>
     </row>
     <row r="121" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="64"/>
-      <c r="B121" s="72"/>
-      <c r="C121" s="72"/>
+      <c r="A121" s="67"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="69"/>
       <c r="D121" s="52">
         <v>8</v>
       </c>
@@ -27719,11 +27713,11 @@
       </c>
     </row>
     <row r="122" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="64"/>
-      <c r="B122" s="73" t="s">
+      <c r="A122" s="67"/>
+      <c r="B122" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C122" s="73" t="s">
+      <c r="C122" s="70" t="s">
         <v>41</v>
       </c>
       <c r="D122" s="53">
@@ -27755,9 +27749,9 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="64"/>
-      <c r="B123" s="73"/>
-      <c r="C123" s="73"/>
+      <c r="A123" s="67"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
       <c r="D123" s="53">
         <v>8</v>
       </c>
@@ -27787,9 +27781,9 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="64"/>
-      <c r="B124" s="73"/>
-      <c r="C124" s="73"/>
+      <c r="A124" s="67"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
       <c r="D124" s="53">
         <v>8</v>
       </c>
@@ -27819,9 +27813,9 @@
       </c>
     </row>
     <row r="125" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="64"/>
-      <c r="B125" s="73"/>
-      <c r="C125" s="73"/>
+      <c r="A125" s="67"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="70"/>
       <c r="D125" s="53">
         <v>8</v>
       </c>
@@ -27851,9 +27845,9 @@
       </c>
     </row>
     <row r="126" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="64"/>
-      <c r="B126" s="73"/>
-      <c r="C126" s="73"/>
+      <c r="A126" s="67"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="70"/>
       <c r="D126" s="53">
         <v>8</v>
       </c>
@@ -27883,9 +27877,9 @@
       </c>
     </row>
     <row r="127" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="64"/>
-      <c r="B127" s="73"/>
-      <c r="C127" s="73"/>
+      <c r="A127" s="67"/>
+      <c r="B127" s="70"/>
+      <c r="C127" s="70"/>
       <c r="D127" s="53">
         <v>8</v>
       </c>
@@ -27915,9 +27909,9 @@
       </c>
     </row>
     <row r="128" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="64"/>
-      <c r="B128" s="73"/>
-      <c r="C128" s="73"/>
+      <c r="A128" s="67"/>
+      <c r="B128" s="70"/>
+      <c r="C128" s="70"/>
       <c r="D128" s="53">
         <v>8</v>
       </c>
@@ -27947,9 +27941,9 @@
       </c>
     </row>
     <row r="129" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="64"/>
-      <c r="B129" s="73"/>
-      <c r="C129" s="73"/>
+      <c r="A129" s="67"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="70"/>
       <c r="D129" s="53">
         <v>8</v>
       </c>
@@ -27979,9 +27973,9 @@
       </c>
     </row>
     <row r="130" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="64"/>
-      <c r="B130" s="73"/>
-      <c r="C130" s="73"/>
+      <c r="A130" s="67"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
       <c r="D130" s="53">
         <v>8</v>
       </c>
@@ -28011,11 +28005,11 @@
       </c>
     </row>
     <row r="131" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="64"/>
-      <c r="B131" s="74" t="s">
+      <c r="A131" s="67"/>
+      <c r="B131" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C131" s="74" t="s">
+      <c r="C131" s="71" t="s">
         <v>43</v>
       </c>
       <c r="D131" s="54">
@@ -28047,9 +28041,9 @@
       </c>
     </row>
     <row r="132" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="64"/>
-      <c r="B132" s="74"/>
-      <c r="C132" s="74"/>
+      <c r="A132" s="67"/>
+      <c r="B132" s="71"/>
+      <c r="C132" s="71"/>
       <c r="D132" s="54">
         <v>8</v>
       </c>
@@ -28079,9 +28073,9 @@
       </c>
     </row>
     <row r="133" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="64"/>
-      <c r="B133" s="74"/>
-      <c r="C133" s="74"/>
+      <c r="A133" s="67"/>
+      <c r="B133" s="71"/>
+      <c r="C133" s="71"/>
       <c r="D133" s="54">
         <v>8</v>
       </c>
@@ -28111,9 +28105,9 @@
       </c>
     </row>
     <row r="134" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="64"/>
-      <c r="B134" s="74"/>
-      <c r="C134" s="74"/>
+      <c r="A134" s="67"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="71"/>
       <c r="D134" s="54">
         <v>8</v>
       </c>
@@ -28143,9 +28137,9 @@
       </c>
     </row>
     <row r="135" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="64"/>
-      <c r="B135" s="74"/>
-      <c r="C135" s="74"/>
+      <c r="A135" s="67"/>
+      <c r="B135" s="71"/>
+      <c r="C135" s="71"/>
       <c r="D135" s="54">
         <v>8</v>
       </c>
@@ -28175,9 +28169,9 @@
       </c>
     </row>
     <row r="136" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="64"/>
-      <c r="B136" s="74"/>
-      <c r="C136" s="74"/>
+      <c r="A136" s="67"/>
+      <c r="B136" s="71"/>
+      <c r="C136" s="71"/>
       <c r="D136" s="54">
         <v>8</v>
       </c>
@@ -28207,9 +28201,9 @@
       </c>
     </row>
     <row r="137" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="64"/>
-      <c r="B137" s="74"/>
-      <c r="C137" s="74"/>
+      <c r="A137" s="67"/>
+      <c r="B137" s="71"/>
+      <c r="C137" s="71"/>
       <c r="D137" s="54">
         <v>8</v>
       </c>
@@ -28239,9 +28233,9 @@
       </c>
     </row>
     <row r="138" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="64"/>
-      <c r="B138" s="74"/>
-      <c r="C138" s="74"/>
+      <c r="A138" s="67"/>
+      <c r="B138" s="71"/>
+      <c r="C138" s="71"/>
       <c r="D138" s="54">
         <v>8</v>
       </c>
@@ -28271,9 +28265,9 @@
       </c>
     </row>
     <row r="139" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="64"/>
-      <c r="B139" s="74"/>
-      <c r="C139" s="74"/>
+      <c r="A139" s="67"/>
+      <c r="B139" s="71"/>
+      <c r="C139" s="71"/>
       <c r="D139" s="54">
         <v>8</v>
       </c>
@@ -28304,6 +28298,45 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:A47"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="C4:C14"/>
+    <mergeCell ref="B15:B25"/>
+    <mergeCell ref="C15:C25"/>
+    <mergeCell ref="B26:B36"/>
+    <mergeCell ref="C26:C36"/>
+    <mergeCell ref="B37:B47"/>
+    <mergeCell ref="C37:C47"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:L49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="A51:A99"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="C52:C63"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="C64:C75"/>
+    <mergeCell ref="B76:B87"/>
+    <mergeCell ref="C76:C87"/>
+    <mergeCell ref="B88:B99"/>
+    <mergeCell ref="C88:C99"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="G101:L101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="K102:L102"/>
     <mergeCell ref="A103:A139"/>
     <mergeCell ref="B104:B112"/>
     <mergeCell ref="C104:C112"/>
@@ -28313,45 +28346,6 @@
     <mergeCell ref="C122:C130"/>
     <mergeCell ref="B131:B139"/>
     <mergeCell ref="C131:C139"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="G101:L101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="A51:A99"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="C52:C63"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="C64:C75"/>
-    <mergeCell ref="B76:B87"/>
-    <mergeCell ref="C76:C87"/>
-    <mergeCell ref="B88:B99"/>
-    <mergeCell ref="C88:C99"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:L49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="A3:A47"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="C4:C14"/>
-    <mergeCell ref="B15:B25"/>
-    <mergeCell ref="C15:C25"/>
-    <mergeCell ref="B26:B36"/>
-    <mergeCell ref="C26:C36"/>
-    <mergeCell ref="B37:B47"/>
-    <mergeCell ref="C37:C47"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
